--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.419600875676508</v>
+        <v>2.419600875676679</v>
       </c>
       <c r="C2">
-        <v>0.5645180049896794</v>
+        <v>0.5645180049898784</v>
       </c>
       <c r="D2">
-        <v>0.02933194637707892</v>
+        <v>0.02933194637718017</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6678513134839363</v>
+        <v>0.6678513134839577</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087236806656392</v>
+        <v>2.087236806656335</v>
       </c>
       <c r="C3">
         <v>0.4877807092383648</v>
       </c>
       <c r="D3">
-        <v>0.03084859579553978</v>
+        <v>0.03084859579575649</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.575866635367781</v>
+        <v>0.5758666353677881</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.88604075762936</v>
+        <v>1.886040757629644</v>
       </c>
       <c r="C4">
-        <v>0.4412373741070894</v>
+        <v>0.4412373741072884</v>
       </c>
       <c r="D4">
-        <v>0.03185445674283471</v>
+        <v>0.03185445674263399</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.57207148490285</v>
+        <v>1.572071484902835</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5201534612185128</v>
+        <v>0.5201534612185199</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804664707872746</v>
+        <v>1.804664707872689</v>
       </c>
       <c r="C5">
-        <v>0.4223887326096474</v>
+        <v>0.4223887326095337</v>
       </c>
       <c r="D5">
-        <v>0.03228153825032543</v>
+        <v>0.03228153825049773</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.79118625558047</v>
+        <v>1.791186255580385</v>
       </c>
       <c r="C6">
-        <v>0.4192653480302511</v>
+        <v>0.4192653480302226</v>
       </c>
       <c r="D6">
-        <v>0.03235344944332752</v>
+        <v>0.03235344944339502</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.519171521188539</v>
+        <v>1.519171521188582</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4938776568716392</v>
+        <v>0.4938776568716179</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.884940948704866</v>
+        <v>1.884940948704838</v>
       </c>
       <c r="C7">
-        <v>0.4409827291282511</v>
+        <v>0.4409827291282795</v>
       </c>
       <c r="D7">
-        <v>0.0318601489083683</v>
+        <v>0.03186014890849975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5198488391095282</v>
+        <v>0.5198488391095495</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.30433493651924</v>
+        <v>2.304334936519126</v>
       </c>
       <c r="C8">
         <v>0.5379234020582828</v>
       </c>
       <c r="D8">
-        <v>0.02983839445857051</v>
+        <v>0.02983839445867176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6359566668378704</v>
+        <v>0.6359566668378633</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.155175845025383</v>
+        <v>3.155175845025212</v>
       </c>
       <c r="C9">
-        <v>0.7339022235366031</v>
+        <v>0.7339022235371431</v>
       </c>
       <c r="D9">
-        <v>0.02654643533313106</v>
+        <v>0.02654643533317014</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.328220666050711</v>
+        <v>2.328220666050655</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8712740294239012</v>
+        <v>0.871274029423887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>3.806444529471207</v>
       </c>
       <c r="C10">
-        <v>0.8835825693810477</v>
+        <v>0.8835825693806214</v>
       </c>
       <c r="D10">
-        <v>0.02466701501863966</v>
+        <v>0.0246670150184265</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.744741725623101</v>
+        <v>2.744741725623044</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.051275783045838</v>
+        <v>1.05127578304581</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.110713515248904</v>
+        <v>4.110713515249017</v>
       </c>
       <c r="C11">
-        <v>0.9534690176650997</v>
+        <v>0.9534690176652987</v>
       </c>
       <c r="D11">
-        <v>0.02396385204728446</v>
+        <v>0.02396385204717077</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.94494114015248</v>
+        <v>2.944941140152508</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.135353168180202</v>
+        <v>1.135353168180245</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>4.227307996847003</v>
       </c>
       <c r="C12">
-        <v>0.980246011574792</v>
+        <v>0.9802460115747351</v>
       </c>
       <c r="D12">
-        <v>0.02372291132291693</v>
+        <v>0.02372291132286009</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.167569426198128</v>
+        <v>1.167569426198142</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.202132253263528</v>
+        <v>4.202132253263301</v>
       </c>
       <c r="C13">
-        <v>0.9744642560921477</v>
+        <v>0.9744642560922046</v>
       </c>
       <c r="D13">
-        <v>0.02377361350166751</v>
+        <v>0.02377361350169238</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.005750349541728</v>
+        <v>3.0057503495417</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.160613173725082</v>
+        <v>1.160613173725054</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.120276872175509</v>
+        <v>4.120276872175225</v>
       </c>
       <c r="C14">
-        <v>0.9556653740523018</v>
+        <v>0.9556653740520744</v>
       </c>
       <c r="D14">
-        <v>0.02394349987259403</v>
+        <v>0.0239434998726189</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.137995653098116</v>
+        <v>1.137995653098102</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.070324261028702</v>
+        <v>4.070324261028588</v>
       </c>
       <c r="C15">
-        <v>0.9441929625920693</v>
+        <v>0.9441929625914156</v>
       </c>
       <c r="D15">
-        <v>0.02405097300218983</v>
+        <v>0.02405097300220405</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.918171011350665</v>
+        <v>2.918171011350637</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.124193003408863</v>
+        <v>1.124193003408905</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786739280187646</v>
+        <v>3.786739280187533</v>
       </c>
       <c r="C16">
-        <v>0.8790559238838966</v>
+        <v>0.8790559238838682</v>
       </c>
       <c r="D16">
-        <v>0.02471630958501692</v>
+        <v>0.02471630958489612</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.731894952740703</v>
+        <v>2.731894952740731</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.614968321637946</v>
+        <v>3.614968321637832</v>
       </c>
       <c r="C17">
-        <v>0.8395926311095536</v>
+        <v>0.8395926311093831</v>
       </c>
       <c r="D17">
-        <v>0.02516566986957613</v>
+        <v>0.02516566986957969</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.516908439803274</v>
+        <v>3.51690843980316</v>
       </c>
       <c r="C18">
-        <v>0.817059766618712</v>
+        <v>0.8170597666189678</v>
       </c>
       <c r="D18">
-        <v>0.02543817733630149</v>
+        <v>0.0254381773359853</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.557479077122849</v>
+        <v>2.557479077122821</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.483827534604757</v>
+        <v>3.483827534604586</v>
       </c>
       <c r="C19">
-        <v>0.8094574042440854</v>
+        <v>0.809457404243858</v>
       </c>
       <c r="D19">
-        <v>0.02553275858754134</v>
+        <v>0.02553275858739923</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9621173637091829</v>
+        <v>0.9621173637091971</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.633175710359751</v>
+        <v>3.633175710359694</v>
       </c>
       <c r="C20">
-        <v>0.8437760823836129</v>
+        <v>0.8437760823838403</v>
       </c>
       <c r="D20">
-        <v>0.02511635726862949</v>
+        <v>0.02511635726875383</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.632286969713959</v>
+        <v>2.632286969713931</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.003392939824749</v>
+        <v>1.003392939824764</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144280537994916</v>
+        <v>4.144280537994803</v>
       </c>
       <c r="C21">
-        <v>0.961178107023926</v>
+        <v>0.9611781070241818</v>
       </c>
       <c r="D21">
-        <v>0.02389288180542692</v>
+        <v>0.02389288180550153</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.967234210633251</v>
+        <v>2.967234210633109</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.144628165137348</v>
+        <v>1.144628165137334</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.486456497667973</v>
+        <v>4.486456497667916</v>
       </c>
       <c r="C22">
-        <v>1.03976003994444</v>
+        <v>1.039760039943957</v>
       </c>
       <c r="D22">
-        <v>0.02324299282291165</v>
+        <v>0.02324299282279441</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.239172632187973</v>
+        <v>1.239172632187959</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.303003384177828</v>
+        <v>4.3030033841776</v>
       </c>
       <c r="C23">
-        <v>0.9976297103798402</v>
+        <v>0.9976297103796128</v>
       </c>
       <c r="D23">
-        <v>0.0235748352684837</v>
+        <v>0.02357483526848014</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.073191950771673</v>
+        <v>3.073191950771644</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.624942006188746</v>
+        <v>3.624942006188633</v>
       </c>
       <c r="C24">
-        <v>0.8418842649237774</v>
+        <v>0.8418842649235785</v>
       </c>
       <c r="D24">
-        <v>0.02513860763443532</v>
+        <v>0.02513860763444242</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.001117461741785</v>
+        <v>1.001117461741771</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921112165586351</v>
+        <v>2.921112165586408</v>
       </c>
       <c r="C25">
-        <v>0.6800536969790301</v>
+        <v>0.6800536969787458</v>
       </c>
       <c r="D25">
-        <v>0.02735275555494532</v>
+        <v>0.02735275555522598</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.182828157090825</v>
+        <v>2.182828157090782</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8065616824101198</v>
+        <v>0.8065616824100914</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.419600875676679</v>
+        <v>2.419600875676508</v>
       </c>
       <c r="C2">
-        <v>0.5645180049898784</v>
+        <v>0.5645180049896794</v>
       </c>
       <c r="D2">
-        <v>0.02933194637718017</v>
+        <v>0.02933194637707892</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6678513134839577</v>
+        <v>0.6678513134839363</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087236806656335</v>
+        <v>2.087236806656392</v>
       </c>
       <c r="C3">
         <v>0.4877807092383648</v>
       </c>
       <c r="D3">
-        <v>0.03084859579575649</v>
+        <v>0.03084859579553978</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5758666353677881</v>
+        <v>0.575866635367781</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886040757629644</v>
+        <v>1.88604075762936</v>
       </c>
       <c r="C4">
-        <v>0.4412373741072884</v>
+        <v>0.4412373741070894</v>
       </c>
       <c r="D4">
-        <v>0.03185445674263399</v>
+        <v>0.03185445674283471</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.572071484902835</v>
+        <v>1.57207148490285</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5201534612185199</v>
+        <v>0.5201534612185128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804664707872689</v>
+        <v>1.804664707872746</v>
       </c>
       <c r="C5">
-        <v>0.4223887326095337</v>
+        <v>0.4223887326096474</v>
       </c>
       <c r="D5">
-        <v>0.03228153825049773</v>
+        <v>0.03228153825032543</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.791186255580385</v>
+        <v>1.79118625558047</v>
       </c>
       <c r="C6">
-        <v>0.4192653480302226</v>
+        <v>0.4192653480302511</v>
       </c>
       <c r="D6">
-        <v>0.03235344944339502</v>
+        <v>0.03235344944332752</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.519171521188582</v>
+        <v>1.519171521188539</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4938776568716179</v>
+        <v>0.4938776568716392</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.884940948704838</v>
+        <v>1.884940948704866</v>
       </c>
       <c r="C7">
-        <v>0.4409827291282795</v>
+        <v>0.4409827291282511</v>
       </c>
       <c r="D7">
-        <v>0.03186014890849975</v>
+        <v>0.0318601489083683</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5198488391095495</v>
+        <v>0.5198488391095282</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.304334936519126</v>
+        <v>2.30433493651924</v>
       </c>
       <c r="C8">
         <v>0.5379234020582828</v>
       </c>
       <c r="D8">
-        <v>0.02983839445867176</v>
+        <v>0.02983839445857051</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6359566668378633</v>
+        <v>0.6359566668378704</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.155175845025212</v>
+        <v>3.155175845025383</v>
       </c>
       <c r="C9">
-        <v>0.7339022235371431</v>
+        <v>0.7339022235366031</v>
       </c>
       <c r="D9">
-        <v>0.02654643533317014</v>
+        <v>0.02654643533313106</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.328220666050655</v>
+        <v>2.328220666050711</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.871274029423887</v>
+        <v>0.8712740294239012</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>3.806444529471207</v>
       </c>
       <c r="C10">
-        <v>0.8835825693806214</v>
+        <v>0.8835825693810477</v>
       </c>
       <c r="D10">
-        <v>0.0246670150184265</v>
+        <v>0.02466701501863966</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.744741725623044</v>
+        <v>2.744741725623101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.05127578304581</v>
+        <v>1.051275783045838</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.110713515249017</v>
+        <v>4.110713515248904</v>
       </c>
       <c r="C11">
-        <v>0.9534690176652987</v>
+        <v>0.9534690176650997</v>
       </c>
       <c r="D11">
-        <v>0.02396385204717077</v>
+        <v>0.02396385204728446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.944941140152508</v>
+        <v>2.94494114015248</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.135353168180245</v>
+        <v>1.135353168180202</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>4.227307996847003</v>
       </c>
       <c r="C12">
-        <v>0.9802460115747351</v>
+        <v>0.980246011574792</v>
       </c>
       <c r="D12">
-        <v>0.02372291132286009</v>
+        <v>0.02372291132291693</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.167569426198142</v>
+        <v>1.167569426198128</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.202132253263301</v>
+        <v>4.202132253263528</v>
       </c>
       <c r="C13">
-        <v>0.9744642560922046</v>
+        <v>0.9744642560921477</v>
       </c>
       <c r="D13">
-        <v>0.02377361350169238</v>
+        <v>0.02377361350166751</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.0057503495417</v>
+        <v>3.005750349541728</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.160613173725054</v>
+        <v>1.160613173725082</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.120276872175225</v>
+        <v>4.120276872175509</v>
       </c>
       <c r="C14">
-        <v>0.9556653740520744</v>
+        <v>0.9556653740523018</v>
       </c>
       <c r="D14">
-        <v>0.0239434998726189</v>
+        <v>0.02394349987259403</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.137995653098102</v>
+        <v>1.137995653098116</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.070324261028588</v>
+        <v>4.070324261028702</v>
       </c>
       <c r="C15">
-        <v>0.9441929625914156</v>
+        <v>0.9441929625920693</v>
       </c>
       <c r="D15">
-        <v>0.02405097300220405</v>
+        <v>0.02405097300218983</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.918171011350637</v>
+        <v>2.918171011350665</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.124193003408905</v>
+        <v>1.124193003408863</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786739280187533</v>
+        <v>3.786739280187646</v>
       </c>
       <c r="C16">
-        <v>0.8790559238838682</v>
+        <v>0.8790559238838966</v>
       </c>
       <c r="D16">
-        <v>0.02471630958489612</v>
+        <v>0.02471630958501692</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.731894952740731</v>
+        <v>2.731894952740703</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.614968321637832</v>
+        <v>3.614968321637946</v>
       </c>
       <c r="C17">
-        <v>0.8395926311093831</v>
+        <v>0.8395926311095536</v>
       </c>
       <c r="D17">
-        <v>0.02516566986957969</v>
+        <v>0.02516566986957613</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.51690843980316</v>
+        <v>3.516908439803274</v>
       </c>
       <c r="C18">
-        <v>0.8170597666189678</v>
+        <v>0.817059766618712</v>
       </c>
       <c r="D18">
-        <v>0.0254381773359853</v>
+        <v>0.02543817733630149</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.557479077122821</v>
+        <v>2.557479077122849</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.483827534604586</v>
+        <v>3.483827534604757</v>
       </c>
       <c r="C19">
-        <v>0.809457404243858</v>
+        <v>0.8094574042440854</v>
       </c>
       <c r="D19">
-        <v>0.02553275858739923</v>
+        <v>0.02553275858754134</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9621173637091971</v>
+        <v>0.9621173637091829</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.633175710359694</v>
+        <v>3.633175710359751</v>
       </c>
       <c r="C20">
-        <v>0.8437760823838403</v>
+        <v>0.8437760823836129</v>
       </c>
       <c r="D20">
-        <v>0.02511635726875383</v>
+        <v>0.02511635726862949</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.632286969713931</v>
+        <v>2.632286969713959</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.003392939824764</v>
+        <v>1.003392939824749</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144280537994803</v>
+        <v>4.144280537994916</v>
       </c>
       <c r="C21">
-        <v>0.9611781070241818</v>
+        <v>0.961178107023926</v>
       </c>
       <c r="D21">
-        <v>0.02389288180550153</v>
+        <v>0.02389288180542692</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.967234210633109</v>
+        <v>2.967234210633251</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.144628165137334</v>
+        <v>1.144628165137348</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.486456497667916</v>
+        <v>4.486456497667973</v>
       </c>
       <c r="C22">
-        <v>1.039760039943957</v>
+        <v>1.03976003994444</v>
       </c>
       <c r="D22">
-        <v>0.02324299282279441</v>
+        <v>0.02324299282291165</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.239172632187959</v>
+        <v>1.239172632187973</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.3030033841776</v>
+        <v>4.303003384177828</v>
       </c>
       <c r="C23">
-        <v>0.9976297103796128</v>
+        <v>0.9976297103798402</v>
       </c>
       <c r="D23">
-        <v>0.02357483526848014</v>
+        <v>0.0235748352684837</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.073191950771644</v>
+        <v>3.073191950771673</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.624942006188633</v>
+        <v>3.624942006188746</v>
       </c>
       <c r="C24">
-        <v>0.8418842649235785</v>
+        <v>0.8418842649237774</v>
       </c>
       <c r="D24">
-        <v>0.02513860763444242</v>
+        <v>0.02513860763443532</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.001117461741771</v>
+        <v>1.001117461741785</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921112165586408</v>
+        <v>2.921112165586351</v>
       </c>
       <c r="C25">
-        <v>0.6800536969787458</v>
+        <v>0.6800536969790301</v>
       </c>
       <c r="D25">
-        <v>0.02735275555522598</v>
+        <v>0.02735275555494532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.182828157090782</v>
+        <v>2.182828157090825</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8065616824100914</v>
+        <v>0.8065616824101198</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.419600875676508</v>
+        <v>2.400997219579153</v>
       </c>
       <c r="C2">
-        <v>0.5645180049896794</v>
+        <v>0.5552499858159763</v>
       </c>
       <c r="D2">
-        <v>0.02933194637707892</v>
+        <v>0.03269243340526629</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.879842251180648</v>
+        <v>1.89747891419087</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007919679186401565</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6678513134839363</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6614726525258519</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087236806656392</v>
+        <v>2.071898492187074</v>
       </c>
       <c r="C3">
-        <v>0.4877807092383648</v>
+        <v>0.4794401105930035</v>
       </c>
       <c r="D3">
-        <v>0.03084859579553978</v>
+        <v>0.03436578714668315</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.686178121630178</v>
+        <v>1.707443209262109</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008003553134117218</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.575866635367781</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.570445022522911</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.88604075762936</v>
+        <v>1.872709951296912</v>
       </c>
       <c r="C4">
-        <v>0.4412373741070894</v>
+        <v>0.4334680927109105</v>
       </c>
       <c r="D4">
-        <v>0.03185445674283471</v>
+        <v>0.03546821836579284</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.57207148490285</v>
+        <v>1.595556566801761</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008056310501785675</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5201534612185128</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5153207360781451</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804664707872746</v>
+        <v>1.792154274756115</v>
       </c>
       <c r="C5">
-        <v>0.4223887326096474</v>
+        <v>0.4148531961952813</v>
       </c>
       <c r="D5">
-        <v>0.03228153825032543</v>
+        <v>0.0359348037600693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.526651771147655</v>
+        <v>1.551041648719007</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008078143450667195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4976117584378628</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4930198030844153</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.79118625558047</v>
+        <v>1.778812228172484</v>
       </c>
       <c r="C6">
-        <v>0.4192653480302511</v>
+        <v>0.4117686932172546</v>
       </c>
       <c r="D6">
-        <v>0.03235344944332752</v>
+        <v>0.03601328533082437</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.519171521188539</v>
+        <v>1.543711704528604</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008081789445430233</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4938776568716392</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4893257419760175</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.884940948704866</v>
+        <v>1.871621194869419</v>
       </c>
       <c r="C7">
-        <v>0.4409827291282511</v>
+        <v>0.4332165957739278</v>
       </c>
       <c r="D7">
-        <v>0.0318601489083683</v>
+        <v>0.03547444260764543</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.571454729076606</v>
+        <v>1.594952010220553</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008056603574237307</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5198488391095282</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5150193572721591</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.30433493651924</v>
+        <v>2.286857692702881</v>
       </c>
       <c r="C8">
-        <v>0.5379234020582828</v>
+        <v>0.5289750603299694</v>
       </c>
       <c r="D8">
-        <v>0.02983839445857051</v>
+        <v>0.033252879302756</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.811989068071568</v>
+        <v>1.83087979322471</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000794834871249262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6359566668378704</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6299080411536693</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.155175845025383</v>
+        <v>3.129479698987723</v>
       </c>
       <c r="C9">
-        <v>0.7339022235366031</v>
+        <v>0.7226265278125084</v>
       </c>
       <c r="D9">
-        <v>0.02654643533313106</v>
+        <v>0.02956868993047834</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.328220666050711</v>
+        <v>2.337905724510648</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007745172570741552</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8712740294239012</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8628196025038619</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806444529471207</v>
+        <v>3.77452624212026</v>
       </c>
       <c r="C10">
-        <v>0.8835825693810477</v>
+        <v>0.8705517381529262</v>
       </c>
       <c r="D10">
-        <v>0.02466701501863966</v>
+        <v>0.02739560623029291</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.744741725623101</v>
+        <v>2.747377832602183</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007600084417801493</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.051275783045838</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.041003124479587</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.110713515248904</v>
+        <v>4.075884538642754</v>
       </c>
       <c r="C11">
-        <v>0.9534690176650997</v>
+        <v>0.9396187743658402</v>
       </c>
       <c r="D11">
-        <v>0.02396385204728446</v>
+        <v>0.02655621442339395</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.94494114015248</v>
+        <v>2.944258332091749</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007534634661230991</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.135353168180202</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.124230711871462</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.227307996847003</v>
+        <v>4.191361113307607</v>
       </c>
       <c r="C12">
-        <v>0.980246011574792</v>
+        <v>0.9660813029553879</v>
       </c>
       <c r="D12">
-        <v>0.02372291132291693</v>
+        <v>0.02626316065104461</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.022548932494544</v>
+        <v>3.020588010154398</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000750989565617546</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.167569426198128</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.156120705527073</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.202132253263528</v>
+        <v>4.166426904026991</v>
       </c>
       <c r="C13">
-        <v>0.9744642560921477</v>
+        <v>0.9603674795893085</v>
       </c>
       <c r="D13">
-        <v>0.02377361350166751</v>
+        <v>0.02632511233420232</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.005750349541728</v>
+        <v>3.004065732903541</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007515222216271751</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.160613173725082</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.149234940228453</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.120276872175509</v>
+        <v>4.085356265950168</v>
       </c>
       <c r="C14">
-        <v>0.9556653740523018</v>
+        <v>0.9417893505349184</v>
       </c>
       <c r="D14">
-        <v>0.02394349987259403</v>
+        <v>0.02653158635779818</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.951288383137722</v>
+        <v>2.950500884135124</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007532598669441473</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.137995653098116</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.126846452045342</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.070324261028702</v>
+        <v>4.035882151589817</v>
       </c>
       <c r="C15">
-        <v>0.9441929625920693</v>
+        <v>0.9304515752541249</v>
       </c>
       <c r="D15">
-        <v>0.02405097300218983</v>
+        <v>0.02666139715266524</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.918171011350665</v>
+        <v>2.91793007703447</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007543247073789061</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.124193003408863</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.113183470169773</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786739280187646</v>
+        <v>3.755009261838666</v>
       </c>
       <c r="C16">
-        <v>0.8790559238838966</v>
+        <v>0.866078127198648</v>
       </c>
       <c r="D16">
-        <v>0.02471630958501692</v>
+        <v>0.02745373861934297</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.731894952740703</v>
+        <v>2.734745279163178</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007604370018033935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.045830413912682</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.035612737676303</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.614968321637946</v>
+        <v>3.584878825398846</v>
       </c>
       <c r="C17">
-        <v>0.8395926311095536</v>
+        <v>0.8270771433166146</v>
       </c>
       <c r="D17">
-        <v>0.02516566986957613</v>
+        <v>0.02798023992744803</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.62053714227477</v>
+        <v>2.625251713183928</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000764198552750959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9983611079285879</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9886226167835019</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.516908439803274</v>
+        <v>3.487755270332798</v>
       </c>
       <c r="C18">
-        <v>0.817059766618712</v>
+        <v>0.8048082915793771</v>
       </c>
       <c r="D18">
-        <v>0.02543817733630149</v>
+        <v>0.02829687856371521</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.557479077122849</v>
+        <v>2.563255701173347</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007663675174026775</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.971260268441597</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9617953419072052</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.483827534604757</v>
+        <v>3.45499025672126</v>
       </c>
       <c r="C19">
-        <v>0.8094574042440854</v>
+        <v>0.7972950255074807</v>
       </c>
       <c r="D19">
-        <v>0.02553275858754134</v>
+        <v>0.02840636498790516</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.536291880890673</v>
+        <v>2.542426486077261</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000767102918244735</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9621173637091829</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9527447423691058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.633175710359751</v>
+        <v>3.602912356529657</v>
       </c>
       <c r="C20">
-        <v>0.8437760823836129</v>
+        <v>0.8312115848039241</v>
       </c>
       <c r="D20">
-        <v>0.02511635726862949</v>
+        <v>0.02792274117498295</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.632286969713959</v>
+        <v>2.636804179747685</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007637975912992104</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.003392939824749</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9936036587611881</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144280537994916</v>
+        <v>4.109129896851584</v>
       </c>
       <c r="C21">
-        <v>0.961178107023926</v>
+        <v>0.947237366557232</v>
       </c>
       <c r="D21">
-        <v>0.02389288180542692</v>
+        <v>0.02647023719268304</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.967234210633251</v>
+        <v>2.966183830990587</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007527493846333222</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.144628165137348</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.133411823649709</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.486456497667973</v>
+        <v>4.448017701561469</v>
       </c>
       <c r="C22">
-        <v>1.03976003994444</v>
+        <v>1.024894817109413</v>
       </c>
       <c r="D22">
-        <v>0.02324299282291165</v>
+        <v>0.02566750921752003</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.196759584060231</v>
+        <v>3.191943068200004</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007455532693073859</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.239172632187973</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.226996859691312</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.303003384177828</v>
+        <v>4.266329741624986</v>
       </c>
       <c r="C23">
-        <v>0.9976297103798402</v>
+        <v>0.9832606350628339</v>
       </c>
       <c r="D23">
-        <v>0.0235748352684837</v>
+        <v>0.02608126927635723</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.073191950771673</v>
+        <v>3.070399128448173</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007493929767973124</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.188484460538021</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.176823666476736</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.624942006188746</v>
+        <v>3.594757274351082</v>
       </c>
       <c r="C24">
-        <v>0.8418842649237774</v>
+        <v>0.829341930112804</v>
       </c>
       <c r="D24">
-        <v>0.02513860763443532</v>
+        <v>0.02794869316873516</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.626971891907118</v>
+        <v>2.6315783587103</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007639788458061039</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.001117461741785</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9913511487096827</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921112165586351</v>
+        <v>2.897659898244001</v>
       </c>
       <c r="C25">
-        <v>0.6800536969790301</v>
+        <v>0.6694122826835951</v>
       </c>
       <c r="D25">
-        <v>0.02735275555494532</v>
+        <v>0.03048165528446134</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.182828157090825</v>
+        <v>2.195038929050881</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007799293542294361</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8065616824101198</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7987635710851038</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400997219579153</v>
+        <v>1.966583844908342</v>
       </c>
       <c r="C2">
-        <v>0.5552499858159763</v>
+        <v>0.4533673900157282</v>
       </c>
       <c r="D2">
-        <v>0.03269243340526629</v>
+        <v>0.3362125631297204</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.89747891419087</v>
+        <v>6.566886320426335</v>
       </c>
       <c r="G2">
-        <v>0.0007919679186401565</v>
+        <v>0.0007641528165814148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6614726525258519</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.813522506685146</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071898492187074</v>
+        <v>1.679124682166616</v>
       </c>
       <c r="C3">
-        <v>0.4794401105930035</v>
+        <v>0.387793738411716</v>
       </c>
       <c r="D3">
-        <v>0.03436578714668315</v>
+        <v>0.2951689128348676</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.707443209262109</v>
+        <v>5.719228373519769</v>
       </c>
       <c r="G3">
-        <v>0.0008003553134117218</v>
+        <v>0.0007757735374669981</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.570445022522911</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.381247774605811</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.872709951296912</v>
+        <v>1.507438124501334</v>
       </c>
       <c r="C4">
-        <v>0.4334680927109105</v>
+        <v>0.3486688004329039</v>
       </c>
       <c r="D4">
-        <v>0.03546821836579284</v>
+        <v>0.2707157136668457</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.595556566801761</v>
+        <v>5.213505962489108</v>
       </c>
       <c r="G4">
-        <v>0.0008056310501785675</v>
+        <v>0.0007830046078638205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5153207360781451</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.127632244981996</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792154274756115</v>
+        <v>1.438493837616335</v>
       </c>
       <c r="C5">
-        <v>0.4148531961952813</v>
+        <v>0.3329601389212087</v>
       </c>
       <c r="D5">
-        <v>0.0359348037600693</v>
+        <v>0.2609058456314131</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.551041648719007</v>
+        <v>5.010522987526599</v>
       </c>
       <c r="G5">
-        <v>0.0008078143450667195</v>
+        <v>0.0007859805121441799</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4930198030844153</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.026696394533616</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.778812228172484</v>
+        <v>1.427102112852879</v>
       </c>
       <c r="C6">
-        <v>0.4117686932172546</v>
+        <v>0.3303645565718796</v>
       </c>
       <c r="D6">
-        <v>0.03601328533082437</v>
+        <v>0.2592854039903756</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.543711704528604</v>
+        <v>4.976989052455707</v>
       </c>
       <c r="G6">
-        <v>0.0008081789445430233</v>
+        <v>0.0007864765567972521</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4893257419760175</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.010067544497886</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.871621194869419</v>
+        <v>1.506504425919871</v>
       </c>
       <c r="C7">
-        <v>0.4332165957739278</v>
+        <v>0.348456058825434</v>
       </c>
       <c r="D7">
-        <v>0.03547444260764543</v>
+        <v>0.2705828271760282</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.594952010220553</v>
+        <v>5.210756640365759</v>
       </c>
       <c r="G7">
-        <v>0.0008056603574237307</v>
+        <v>0.000783044617541301</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5150193572721591</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.126261873318043</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.286857692702881</v>
+        <v>1.866345601979617</v>
       </c>
       <c r="C8">
-        <v>0.5289750603299694</v>
+        <v>0.430488646331554</v>
       </c>
       <c r="D8">
-        <v>0.033252879302756</v>
+        <v>0.3218841460114845</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.83087979322471</v>
+        <v>6.271163576704396</v>
       </c>
       <c r="G8">
-        <v>0.000794834871249262</v>
+        <v>0.0007681430224971196</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6299080411536693</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.661657997898217</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.129479698987723</v>
+        <v>2.620360673580933</v>
       </c>
       <c r="C9">
-        <v>0.7226265278125084</v>
+        <v>0.6030989982686776</v>
       </c>
       <c r="D9">
-        <v>0.02956868993047834</v>
+        <v>0.4302045305415163</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.337905724510648</v>
+        <v>8.500128348622752</v>
       </c>
       <c r="G9">
-        <v>0.0007745172570741552</v>
+        <v>0.0007394064992347654</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8628196025038619</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.837116672334986</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.77452624212026</v>
+        <v>3.221077320959466</v>
       </c>
       <c r="C10">
-        <v>0.8705517381529262</v>
+        <v>0.7417051888963329</v>
       </c>
       <c r="D10">
-        <v>0.02739560623029291</v>
+        <v>0.5176145025722008</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.747377832602183</v>
+        <v>10.28538029329718</v>
       </c>
       <c r="G10">
-        <v>0.0007600084417801493</v>
+        <v>0.0007181043651880729</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.041003124479587</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.838089281624235</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.075884538642754</v>
+        <v>3.509550325798443</v>
       </c>
       <c r="C11">
-        <v>0.9396187743658402</v>
+        <v>0.8086769774919844</v>
       </c>
       <c r="D11">
-        <v>0.02655621442339395</v>
+        <v>0.5600403053065577</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.944258332091749</v>
+        <v>11.14679361882634</v>
       </c>
       <c r="G11">
-        <v>0.0007534634661230991</v>
+        <v>0.000708221009212449</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.124230711871462</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.344449149033835</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.191361113307607</v>
+        <v>3.621523503477135</v>
       </c>
       <c r="C12">
-        <v>0.9660813029553879</v>
+        <v>0.8347488021902052</v>
       </c>
       <c r="D12">
-        <v>0.02626316065104461</v>
+        <v>0.5765999581018662</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.020588010154398</v>
+        <v>11.48204430684763</v>
       </c>
       <c r="G12">
-        <v>0.000750989565617546</v>
+        <v>0.000704432952270309</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.156120705527073</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.546266959912529</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.166426904026991</v>
+        <v>3.597276206369202</v>
       </c>
       <c r="C13">
-        <v>0.9603674795893085</v>
+        <v>0.8290993958442812</v>
       </c>
       <c r="D13">
-        <v>0.02632511233420232</v>
+        <v>0.5730094147789941</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.004065732903541</v>
+        <v>11.4094015618893</v>
       </c>
       <c r="G13">
-        <v>0.0007515222216271751</v>
+        <v>0.0007052511467921939</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.149234940228453</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.502297356029246</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.085356265950168</v>
+        <v>3.518703981034776</v>
       </c>
       <c r="C14">
-        <v>0.9417893505349184</v>
+        <v>0.8108066952741524</v>
       </c>
       <c r="D14">
-        <v>0.02653158635779818</v>
+        <v>0.561392015208952</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.950500884135124</v>
+        <v>11.17418005235885</v>
       </c>
       <c r="G14">
-        <v>0.0007532598669441473</v>
+        <v>0.0007079103969371126</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.126846452045342</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.36083106539823</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.035882151589817</v>
+        <v>3.470950985600723</v>
       </c>
       <c r="C15">
-        <v>0.9304515752541249</v>
+        <v>0.7996994876172892</v>
       </c>
       <c r="D15">
-        <v>0.02666139715266524</v>
+        <v>0.5543442416718278</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.91793007703447</v>
+        <v>11.03134745621003</v>
       </c>
       <c r="G15">
-        <v>0.0007543247073789061</v>
+        <v>0.0007095327204966632</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.113183470169773</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.275591461001156</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.755009261838666</v>
+        <v>3.2025747635534</v>
       </c>
       <c r="C16">
-        <v>0.866078127198648</v>
+        <v>0.7374191028809776</v>
       </c>
       <c r="D16">
-        <v>0.02745373861934297</v>
+        <v>0.5149041918611772</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.734745279163178</v>
+        <v>10.23023179914131</v>
       </c>
       <c r="G16">
-        <v>0.0007604370018033935</v>
+        <v>0.0007187449965418567</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.035612737676303</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.806232943858788</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.584878825398846</v>
+        <v>3.042179011400435</v>
       </c>
       <c r="C17">
-        <v>0.8270771433166146</v>
+        <v>0.7003102163822348</v>
       </c>
       <c r="D17">
-        <v>0.02798023992744803</v>
+        <v>0.4914599771778398</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.625251713183928</v>
+        <v>9.752625189155935</v>
       </c>
       <c r="G17">
-        <v>0.000764198552750959</v>
+        <v>0.0007243360870502807</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9886226167835019</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.532983426528276</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.487755270332798</v>
+        <v>2.951315263910942</v>
       </c>
       <c r="C18">
-        <v>0.8048082915793771</v>
+        <v>0.6793244553898887</v>
       </c>
       <c r="D18">
-        <v>0.02829687856371521</v>
+        <v>0.4782178825173276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.563255701173347</v>
+        <v>9.482413677144592</v>
       </c>
       <c r="G18">
-        <v>0.0007663675174026775</v>
+        <v>0.0007275350955736405</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9617953419072052</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.380406923694764</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.45499025672126</v>
+        <v>2.920774749106215</v>
       </c>
       <c r="C19">
-        <v>0.7972950255074807</v>
+        <v>0.672276633151057</v>
       </c>
       <c r="D19">
-        <v>0.02840636498790516</v>
+        <v>0.4737731058721977</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.542426486077261</v>
+        <v>9.391645813254769</v>
       </c>
       <c r="G19">
-        <v>0.000767102918244735</v>
+        <v>0.0007286157854124218</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9527447423691058</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.32946898812375</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.602912356529657</v>
+        <v>3.059105828704446</v>
       </c>
       <c r="C20">
-        <v>0.8312115848039241</v>
+        <v>0.7042224817886904</v>
       </c>
       <c r="D20">
-        <v>0.02792274117498295</v>
+        <v>0.4939298676823682</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.636804179747685</v>
+        <v>9.802989569145296</v>
       </c>
       <c r="G20">
-        <v>0.0007637975912992104</v>
+        <v>0.0007237427593235958</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9936036587611881</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.561579967830312</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.109129896851584</v>
+        <v>3.541703265976992</v>
       </c>
       <c r="C21">
-        <v>0.947237366557232</v>
+        <v>0.8161590482095562</v>
       </c>
       <c r="D21">
-        <v>0.02647023719268304</v>
+        <v>0.5647898591255682</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.966183830990587</v>
+        <v>11.24300595517161</v>
       </c>
       <c r="G21">
-        <v>0.0007527493846333222</v>
+        <v>0.0007071307149928261</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.133411823649709</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.402082093752426</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.448017701561469</v>
+        <v>3.873413787803145</v>
       </c>
       <c r="C22">
-        <v>1.024894817109413</v>
+        <v>0.8935582108464928</v>
       </c>
       <c r="D22">
-        <v>0.02566750921752003</v>
+        <v>0.6140608797630023</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.191943068200004</v>
+        <v>12.23831347835369</v>
       </c>
       <c r="G22">
-        <v>0.0007455532693073859</v>
+        <v>0.0006959957206872383</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.226996859691312</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6.012379519626293</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.266329741624986</v>
+        <v>3.694661572026632</v>
       </c>
       <c r="C23">
-        <v>0.9832606350628339</v>
+        <v>0.8518016808525033</v>
       </c>
       <c r="D23">
-        <v>0.02608126927635723</v>
+        <v>0.5874462267905471</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.070399128448173</v>
+        <v>11.70131914125523</v>
       </c>
       <c r="G23">
-        <v>0.0007493929767973124</v>
+        <v>0.0007019716959193994</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.176823666476736</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.679818398032879</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.594757274351082</v>
+        <v>3.051449049402947</v>
       </c>
       <c r="C24">
-        <v>0.829341930112804</v>
+        <v>0.7024526713123009</v>
       </c>
       <c r="D24">
-        <v>0.02794869316873516</v>
+        <v>0.4928125020349796</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.6315783587103</v>
+        <v>9.780206358021843</v>
       </c>
       <c r="G24">
-        <v>0.0007639788458061039</v>
+        <v>0.0007240110494280451</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9913511487096827</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.548637586338899</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.897659898244001</v>
+        <v>2.409615515051485</v>
       </c>
       <c r="C25">
-        <v>0.6694122826835951</v>
+        <v>0.5547212473079526</v>
       </c>
       <c r="D25">
-        <v>0.03048165528446134</v>
+        <v>0.3997930475592995</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.195038929050881</v>
+        <v>7.876010034066809</v>
       </c>
       <c r="G25">
-        <v>0.0007799293542294361</v>
+        <v>0.0007471721116144773</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7987635710851038</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>3.500468144289371</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.966583844908342</v>
+        <v>2.804385974717832</v>
       </c>
       <c r="C2">
-        <v>0.4533673900157282</v>
+        <v>0.3341271495041553</v>
       </c>
       <c r="D2">
-        <v>0.3362125631297204</v>
+        <v>0.03346929983651137</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.566886320426335</v>
+        <v>0.6322193245613548</v>
       </c>
       <c r="G2">
-        <v>0.0007641528165814148</v>
+        <v>0.0007839669085958113</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.408699189788635</v>
       </c>
       <c r="M2">
-        <v>2.813522506685146</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6551255101882347</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.837711881007351</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679124682166616</v>
+        <v>2.435698271177671</v>
       </c>
       <c r="C3">
-        <v>0.387793738411716</v>
+        <v>0.3105434183208615</v>
       </c>
       <c r="D3">
-        <v>0.2951689128348676</v>
+        <v>0.03049132459296544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.719228373519769</v>
+        <v>0.5759793475813311</v>
       </c>
       <c r="G3">
-        <v>0.0007757735374669981</v>
+        <v>0.0007884310171423746</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.359936745784978</v>
       </c>
       <c r="M3">
-        <v>2.381247774605811</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6816127025992245</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.699627777055156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.507438124501334</v>
+        <v>2.210183918246287</v>
       </c>
       <c r="C4">
-        <v>0.3486688004329039</v>
+        <v>0.2960371658856928</v>
       </c>
       <c r="D4">
-        <v>0.2707157136668457</v>
+        <v>0.02865699244774689</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213505962489108</v>
+        <v>0.5427359242229244</v>
       </c>
       <c r="G4">
-        <v>0.0007830046078638205</v>
+        <v>0.0007912626215287639</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3304588961453305</v>
       </c>
       <c r="M4">
-        <v>2.127632244981996</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.6989494990843426</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.619075974603277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.438493837616335</v>
+        <v>2.118460037310285</v>
       </c>
       <c r="C5">
-        <v>0.3329601389212087</v>
+        <v>0.2901184102133243</v>
       </c>
       <c r="D5">
-        <v>0.2609058456314131</v>
+        <v>0.02790791370656009</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.010522987526599</v>
+        <v>0.5294897718482261</v>
       </c>
       <c r="G5">
-        <v>0.0007859805121441799</v>
+        <v>0.0007924397702651236</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.318551748733455</v>
       </c>
       <c r="M5">
-        <v>2.026696394533616</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7062756924298803</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.587242752853996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.427102112852879</v>
+        <v>2.103238762615547</v>
       </c>
       <c r="C6">
-        <v>0.3303645565718796</v>
+        <v>0.289135138301063</v>
       </c>
       <c r="D6">
-        <v>0.2592854039903756</v>
+        <v>0.02778343185991972</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.976989052455707</v>
+        <v>0.5273077744795245</v>
       </c>
       <c r="G6">
-        <v>0.0007864765567972521</v>
+        <v>0.0007926366519929887</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3165806272959202</v>
       </c>
       <c r="M6">
-        <v>2.010067544497886</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7075077399794196</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.582014771397439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.506504425919871</v>
+        <v>2.20894624224178</v>
       </c>
       <c r="C7">
-        <v>0.348456058825434</v>
+        <v>0.2959573742818407</v>
       </c>
       <c r="D7">
-        <v>0.2705828271760282</v>
+        <v>0.02864689661179654</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210756640365759</v>
+        <v>0.5425560936409894</v>
       </c>
       <c r="G7">
-        <v>0.000783044617541301</v>
+        <v>0.0007912784022510146</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3302978998436572</v>
       </c>
       <c r="M7">
-        <v>2.126261873318043</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.699047255732026</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.61864273520294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.866345601979617</v>
+        <v>2.677057765717336</v>
       </c>
       <c r="C8">
-        <v>0.430488646331554</v>
+        <v>0.3260002686436678</v>
       </c>
       <c r="D8">
-        <v>0.3218841460114845</v>
+        <v>0.03244364016919832</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.271163576704396</v>
+        <v>0.6125461168067972</v>
       </c>
       <c r="G8">
-        <v>0.0007681430224971196</v>
+        <v>0.0007854876078192639</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.391783095524687</v>
       </c>
       <c r="M8">
-        <v>2.661657997898217</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.664030128020265</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.789177467206599</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.620360673580933</v>
+        <v>3.603906371400058</v>
       </c>
       <c r="C9">
-        <v>0.6030989982686776</v>
+        <v>0.3847563105143195</v>
       </c>
       <c r="D9">
-        <v>0.4302045305415163</v>
+        <v>0.03984824280389887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.500128348622752</v>
+        <v>0.7611297352712683</v>
       </c>
       <c r="G9">
-        <v>0.0007394064992347654</v>
+        <v>0.0007748289047780355</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5165575483669471</v>
       </c>
       <c r="M9">
-        <v>3.837116672334986</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6042926362343835</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.160642350772804</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.221077320959466</v>
+        <v>4.293398569430678</v>
       </c>
       <c r="C10">
-        <v>0.7417051888963329</v>
+        <v>0.427903594068141</v>
       </c>
       <c r="D10">
-        <v>0.5176145025722008</v>
+        <v>0.0452725921467092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.28538029329718</v>
+        <v>0.8788628446736908</v>
       </c>
       <c r="G10">
-        <v>0.0007181043651880729</v>
+        <v>0.0007673901526377825</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6115906634802855</v>
       </c>
       <c r="M10">
-        <v>4.838089281624235</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5664583518062258</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.461310129599127</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.509550325798443</v>
+        <v>4.6096782307269</v>
       </c>
       <c r="C11">
-        <v>0.8086769774919844</v>
+        <v>0.447547000986674</v>
       </c>
       <c r="D11">
-        <v>0.5600403053065577</v>
+        <v>0.04773911627404459</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14679361882634</v>
+        <v>0.9346826466571372</v>
       </c>
       <c r="G11">
-        <v>0.000708221009212449</v>
+        <v>0.0007640834529602064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.65574652973946</v>
       </c>
       <c r="M11">
-        <v>5.344449149033835</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.550707951056296</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.60536305811533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.621523503477135</v>
+        <v>4.729890371859483</v>
       </c>
       <c r="C12">
-        <v>0.8347488021902052</v>
+        <v>0.4549893597943822</v>
       </c>
       <c r="D12">
-        <v>0.5765999581018662</v>
+        <v>0.04867317488535861</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.48204430684763</v>
+        <v>0.9561815108088894</v>
       </c>
       <c r="G12">
-        <v>0.000704432952270309</v>
+        <v>0.0007628417085932389</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6726175393639124</v>
       </c>
       <c r="M12">
-        <v>5.546266959912529</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.544967095777082</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.661071300818548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.597276206369202</v>
+        <v>4.703979678849748</v>
       </c>
       <c r="C13">
-        <v>0.8290993958442812</v>
+        <v>0.4533863171407688</v>
       </c>
       <c r="D13">
-        <v>0.5730094147789941</v>
+        <v>0.04847200367590432</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.4094015618893</v>
+        <v>0.9515346844886778</v>
       </c>
       <c r="G13">
-        <v>0.0007052511467921939</v>
+        <v>0.0007631086877884799</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6689770999035005</v>
       </c>
       <c r="M13">
-        <v>5.502297356029246</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5461933272414541</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.649020127434255</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.518703981034776</v>
+        <v>4.619558860095935</v>
       </c>
       <c r="C14">
-        <v>0.8108066952741524</v>
+        <v>0.4481592018514107</v>
       </c>
       <c r="D14">
-        <v>0.561392015208952</v>
+        <v>0.04781595989494036</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17418005235885</v>
+        <v>0.9364439186671234</v>
       </c>
       <c r="G14">
-        <v>0.0007079103969371126</v>
+        <v>0.0007639810888943675</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6571314055754414</v>
       </c>
       <c r="M14">
-        <v>5.36083106539823</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5502310878914898</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.609922316298281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.470950985600723</v>
+        <v>4.567908541186512</v>
       </c>
       <c r="C15">
-        <v>0.7996994876172892</v>
+        <v>0.4449579915857385</v>
       </c>
       <c r="D15">
-        <v>0.5543442416718278</v>
+        <v>0.04741412521793364</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03134745621003</v>
+        <v>0.9272485276123774</v>
       </c>
       <c r="G15">
-        <v>0.0007095327204966632</v>
+        <v>0.0007645167972624068</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.649895661400933</v>
       </c>
       <c r="M15">
-        <v>5.275591461001156</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5527338530946722</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.58612813078193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.2025747635534</v>
+        <v>4.272787333729809</v>
       </c>
       <c r="C16">
-        <v>0.7374191028809776</v>
+        <v>0.4266202957981875</v>
       </c>
       <c r="D16">
-        <v>0.5149041918611772</v>
+        <v>0.04511139378438855</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23023179914131</v>
+        <v>0.8752634098664487</v>
       </c>
       <c r="G16">
-        <v>0.0007187449965418567</v>
+        <v>0.0007676077507329107</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6087250186689488</v>
       </c>
       <c r="M16">
-        <v>4.806232943858788</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.567518195071834</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.452051748832247</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.042179011400435</v>
+        <v>4.092458086948511</v>
       </c>
       <c r="C17">
-        <v>0.7003102163822348</v>
+        <v>0.4153757659997552</v>
       </c>
       <c r="D17">
-        <v>0.4914599771778398</v>
+        <v>0.04369860474676557</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.752625189155935</v>
+        <v>0.843976267800187</v>
       </c>
       <c r="G17">
-        <v>0.0007243360870502807</v>
+        <v>0.0007695232658032664</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5837168096602596</v>
       </c>
       <c r="M17">
-        <v>4.532983426528276</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5769712577355008</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.37174113058208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.951315263910942</v>
+        <v>3.988980380982412</v>
       </c>
       <c r="C18">
-        <v>0.6793244553898887</v>
+        <v>0.4089095624019592</v>
       </c>
       <c r="D18">
-        <v>0.4782178825173276</v>
+        <v>0.04288589556963984</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.482413677144592</v>
+        <v>0.8261913776081968</v>
       </c>
       <c r="G18">
-        <v>0.0007275350955736405</v>
+        <v>0.000770632331450906</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5694186927042466</v>
       </c>
       <c r="M18">
-        <v>4.380406923694764</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5825450250969197</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.326226378359735</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.920774749106215</v>
+        <v>3.953984397687918</v>
       </c>
       <c r="C19">
-        <v>0.672276633151057</v>
+        <v>0.4067204032853908</v>
       </c>
       <c r="D19">
-        <v>0.4737731058721977</v>
+        <v>0.04261070182111126</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.391645813254769</v>
+        <v>0.8202048532516102</v>
       </c>
       <c r="G19">
-        <v>0.0007286157854124218</v>
+        <v>0.0007710091175515354</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5645918563804315</v>
       </c>
       <c r="M19">
-        <v>4.32946898812375</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5844552774883596</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.310929007748598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.059105828704446</v>
+        <v>4.111628840746562</v>
       </c>
       <c r="C20">
-        <v>0.7042224817886904</v>
+        <v>0.4165726143654922</v>
       </c>
       <c r="D20">
-        <v>0.4939298676823682</v>
+        <v>0.04384900865923669</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.802989569145296</v>
+        <v>0.8472847861286681</v>
       </c>
       <c r="G20">
-        <v>0.0007237427593235958</v>
+        <v>0.0007693186039059209</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5863699614995852</v>
       </c>
       <c r="M20">
-        <v>4.561579967830312</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.575950729683953</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.380219401179062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.541703265976992</v>
+        <v>4.644342697843513</v>
       </c>
       <c r="C21">
-        <v>0.8161590482095562</v>
+        <v>0.4496944148529849</v>
       </c>
       <c r="D21">
-        <v>0.5647898591255682</v>
+        <v>0.0480086531813626</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24300595517161</v>
+        <v>0.9408663423869541</v>
       </c>
       <c r="G21">
-        <v>0.0007071307149928261</v>
+        <v>0.0007637245660369172</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6606065547146898</v>
       </c>
       <c r="M21">
-        <v>5.402082093752426</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5490389222720395</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.621373911397484</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.873413787803145</v>
+        <v>4.995124243584769</v>
       </c>
       <c r="C22">
-        <v>0.8935582108464928</v>
+        <v>0.4713646017320912</v>
       </c>
       <c r="D22">
-        <v>0.6140608797630023</v>
+        <v>0.0507275534994136</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.23831347835369</v>
+        <v>1.00415087935832</v>
       </c>
       <c r="G22">
-        <v>0.0006959957206872383</v>
+        <v>0.0007601289896600929</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7100085868030561</v>
       </c>
       <c r="M22">
-        <v>6.012379519626293</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5327601049601896</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.785793763490517</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.694661572026632</v>
+        <v>4.807642217360751</v>
       </c>
       <c r="C23">
-        <v>0.8518016808525033</v>
+        <v>0.4597961203246541</v>
       </c>
       <c r="D23">
-        <v>0.5874462267905471</v>
+        <v>0.04927632717329544</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70131914125523</v>
+        <v>0.9701678394149269</v>
       </c>
       <c r="G23">
-        <v>0.0007019716959193994</v>
+        <v>0.0007620427211287854</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6835548568335952</v>
       </c>
       <c r="M23">
-        <v>5.679818398032879</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5413238722123452</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.697377127756965</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.051449049402947</v>
+        <v>4.102961137460625</v>
       </c>
       <c r="C24">
-        <v>0.7024526713123009</v>
+        <v>0.4160315242393153</v>
       </c>
       <c r="D24">
-        <v>0.4928125020349796</v>
+        <v>0.0437810125531044</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780206358021843</v>
+        <v>0.8457883769070804</v>
       </c>
       <c r="G24">
-        <v>0.0007240110494280451</v>
+        <v>0.0007694111071531963</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5851702254091293</v>
       </c>
       <c r="M24">
-        <v>4.548637586338899</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5764116782310182</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.376384337330165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.409615515051485</v>
+        <v>3.35191019579986</v>
       </c>
       <c r="C25">
-        <v>0.5547212473079526</v>
+        <v>0.368870804309239</v>
       </c>
       <c r="D25">
-        <v>0.3997930475592995</v>
+        <v>0.03784858563687266</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.876010034066809</v>
+        <v>0.7195563648169241</v>
       </c>
       <c r="G25">
-        <v>0.0007471721116144773</v>
+        <v>0.0007776410010748404</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4822738143562191</v>
       </c>
       <c r="M25">
-        <v>3.500468144289371</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.619436743821403</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.055674003454953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.804385974717832</v>
+        <v>1.180224853344214</v>
       </c>
       <c r="C2">
-        <v>0.3341271495041553</v>
+        <v>0.2539906260882248</v>
       </c>
       <c r="D2">
-        <v>0.03346929983651137</v>
+        <v>0.02053995338318515</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6322193245613548</v>
+        <v>0.7280012243653715</v>
       </c>
       <c r="G2">
-        <v>0.0007839669085958113</v>
+        <v>0.002416919059712845</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.408699189788635</v>
+        <v>0.3012337838743093</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6551255101882347</v>
+        <v>1.131375548652215</v>
       </c>
       <c r="O2">
-        <v>1.837711881007351</v>
+        <v>2.471504930964642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.435698271177671</v>
+        <v>1.074033237016806</v>
       </c>
       <c r="C3">
-        <v>0.3105434183208615</v>
+        <v>0.2460396903492352</v>
       </c>
       <c r="D3">
-        <v>0.03049132459296544</v>
+        <v>0.01950694037844514</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5759793475813311</v>
+        <v>0.7200488682179014</v>
       </c>
       <c r="G3">
-        <v>0.0007884310171423746</v>
+        <v>0.002419919344888023</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.359936745784978</v>
+        <v>0.2898477225839855</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6816127025992245</v>
+        <v>1.142993163231139</v>
       </c>
       <c r="O3">
-        <v>1.699627777055156</v>
+        <v>2.459605702162378</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.210183918246287</v>
+        <v>1.009051118173829</v>
       </c>
       <c r="C4">
-        <v>0.2960371658856928</v>
+        <v>0.2411298925041763</v>
       </c>
       <c r="D4">
-        <v>0.02865699244774689</v>
+        <v>0.01886802895757356</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5427359242229244</v>
+        <v>0.7156971790199265</v>
       </c>
       <c r="G4">
-        <v>0.0007912626215287639</v>
+        <v>0.00242186091108422</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3304588961453305</v>
+        <v>0.2830325509734593</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6989494990843426</v>
+        <v>1.150615897478787</v>
       </c>
       <c r="O4">
-        <v>1.619075974603277</v>
+        <v>2.454086847459706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.118460037310285</v>
+        <v>0.9826269491833841</v>
       </c>
       <c r="C5">
-        <v>0.2901184102133243</v>
+        <v>0.2391222588468622</v>
       </c>
       <c r="D5">
-        <v>0.02790791370656009</v>
+        <v>0.018606518919416</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5294897718482261</v>
+        <v>0.7140571777443512</v>
       </c>
       <c r="G5">
-        <v>0.0007924397702651236</v>
+        <v>0.002422677180639073</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.318551748733455</v>
+        <v>0.2802995456740121</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7062756924298803</v>
+        <v>1.153845331402536</v>
       </c>
       <c r="O5">
-        <v>1.587242752853996</v>
+        <v>2.452286558987822</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.103238762615547</v>
+        <v>0.9782426901090844</v>
       </c>
       <c r="C6">
-        <v>0.289135138301063</v>
+        <v>0.2387884837983449</v>
       </c>
       <c r="D6">
-        <v>0.02778343185991972</v>
+        <v>0.01856302653275677</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5273077744795245</v>
+        <v>0.7137929048171259</v>
       </c>
       <c r="G6">
-        <v>0.0007926366519929887</v>
+        <v>0.002422814237536609</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3165806272959202</v>
+        <v>0.2798484036993187</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7075077399794196</v>
+        <v>1.154389012716074</v>
       </c>
       <c r="O6">
-        <v>1.582014771397439</v>
+        <v>2.452014700408739</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.20894624224178</v>
+        <v>1.008694521858217</v>
       </c>
       <c r="C7">
-        <v>0.2959573742818407</v>
+        <v>0.2411028443775649</v>
       </c>
       <c r="D7">
-        <v>0.02864689661179654</v>
+        <v>0.01886450676789408</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5425560936409894</v>
+        <v>0.715674521736581</v>
       </c>
       <c r="G7">
-        <v>0.0007912784022510146</v>
+        <v>0.002421871817924536</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3302978998436572</v>
+        <v>0.2829955136150488</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.699047255732026</v>
+        <v>1.150658952259668</v>
       </c>
       <c r="O7">
-        <v>1.61864273520294</v>
+        <v>2.454060752408139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.677057765717336</v>
+        <v>1.143565052050917</v>
       </c>
       <c r="C8">
-        <v>0.3260002686436678</v>
+        <v>0.2512550271080443</v>
       </c>
       <c r="D8">
-        <v>0.03244364016919832</v>
+        <v>0.02018474322260033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6125461168067972</v>
+        <v>0.7251488996480404</v>
       </c>
       <c r="G8">
-        <v>0.0007854876078192639</v>
+        <v>0.002417932977752616</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.391783095524687</v>
+        <v>0.2972713523129045</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.664030128020265</v>
+        <v>1.135279727309694</v>
       </c>
       <c r="O8">
-        <v>1.789177467206599</v>
+        <v>2.467030657910016</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.603906371400058</v>
+        <v>1.409749346976128</v>
       </c>
       <c r="C9">
-        <v>0.3847563105143195</v>
+        <v>0.2709359029755092</v>
       </c>
       <c r="D9">
-        <v>0.03984824280389887</v>
+        <v>0.022736269993338</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7611297352712683</v>
+        <v>0.7479532027217459</v>
       </c>
       <c r="G9">
-        <v>0.0007748289047780355</v>
+        <v>0.002410993985511034</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5165575483669471</v>
+        <v>0.3266640483859504</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6042926362343835</v>
+        <v>1.109003727147019</v>
       </c>
       <c r="O9">
-        <v>2.160642350772804</v>
+        <v>2.506685156329638</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.293398569430678</v>
+        <v>1.606317622865845</v>
       </c>
       <c r="C10">
-        <v>0.427903594068141</v>
+        <v>0.285249717485101</v>
       </c>
       <c r="D10">
-        <v>0.0452725921467092</v>
+        <v>0.02458733070753993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8788628446736908</v>
+        <v>0.7673016974697333</v>
       </c>
       <c r="G10">
-        <v>0.0007673901526377825</v>
+        <v>0.002406369651095979</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6115906634802855</v>
+        <v>0.3491164782368514</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5664583518062258</v>
+        <v>1.092064210790404</v>
       </c>
       <c r="O10">
-        <v>2.461310129599127</v>
+        <v>2.544550131791766</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.6096782307269</v>
+        <v>1.695953021508501</v>
       </c>
       <c r="C11">
-        <v>0.447547000986674</v>
+        <v>0.2917283985389076</v>
       </c>
       <c r="D11">
-        <v>0.04773911627404459</v>
+        <v>0.02542417310792189</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9346826466571372</v>
+        <v>0.7766712805646847</v>
       </c>
       <c r="G11">
-        <v>0.0007640834529602064</v>
+        <v>0.00240436775848868</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.65574652973946</v>
+        <v>0.3595182339012268</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.550707951056296</v>
+        <v>1.08487141456002</v>
       </c>
       <c r="O11">
-        <v>2.60536305811533</v>
+        <v>2.563685432565791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.729890371859483</v>
+        <v>1.7299256187938</v>
       </c>
       <c r="C12">
-        <v>0.4549893597943822</v>
+        <v>0.2941768511218186</v>
       </c>
       <c r="D12">
-        <v>0.04867317488535861</v>
+        <v>0.02574029815769308</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9561815108088894</v>
+        <v>0.780301226414025</v>
       </c>
       <c r="G12">
-        <v>0.0007628417085932389</v>
+        <v>0.002403624245672648</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6726175393639124</v>
+        <v>0.3634841969345217</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.544967095777082</v>
+        <v>1.082221476119663</v>
       </c>
       <c r="O12">
-        <v>2.661071300818548</v>
+        <v>2.571207136525572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.703979678849748</v>
+        <v>1.722607716690391</v>
       </c>
       <c r="C13">
-        <v>0.4533863171407688</v>
+        <v>0.2936497530100155</v>
       </c>
       <c r="D13">
-        <v>0.04847200367590432</v>
+        <v>0.02567224947829061</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9515346844886778</v>
+        <v>0.7795158069612</v>
       </c>
       <c r="G13">
-        <v>0.0007631086877884799</v>
+        <v>0.002403783727919154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6689770999035005</v>
+        <v>0.3626288529701611</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5461933272414541</v>
+        <v>1.082788904070846</v>
       </c>
       <c r="O13">
-        <v>2.649020127434255</v>
+        <v>2.56957493250647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.619558860095935</v>
+        <v>1.698747381805447</v>
       </c>
       <c r="C14">
-        <v>0.4481592018514107</v>
+        <v>0.2919299330731064</v>
       </c>
       <c r="D14">
-        <v>0.04781595989494036</v>
+        <v>0.02545019642720803</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9364439186671234</v>
+        <v>0.77696827591447</v>
       </c>
       <c r="G14">
-        <v>0.0007639810888943675</v>
+        <v>0.002404306297666475</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6571314055754414</v>
+        <v>0.3598439740378296</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5502310878914898</v>
+        <v>1.084651922884568</v>
       </c>
       <c r="O14">
-        <v>2.609922316298281</v>
+        <v>2.564298719606313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.567908541186512</v>
+        <v>1.684136054113537</v>
       </c>
       <c r="C15">
-        <v>0.4449579915857385</v>
+        <v>0.290875852580939</v>
       </c>
       <c r="D15">
-        <v>0.04741412521793364</v>
+        <v>0.02531408180700367</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9272485276123774</v>
+        <v>0.7754185106797138</v>
       </c>
       <c r="G15">
-        <v>0.0007645167972624068</v>
+        <v>0.002404628281024394</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.649895661400933</v>
+        <v>0.3581416773446762</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5527338530946722</v>
+        <v>1.085802690114178</v>
       </c>
       <c r="O15">
-        <v>2.58612813078193</v>
+        <v>2.561102801633922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.272787333729809</v>
+        <v>1.600463957870147</v>
       </c>
       <c r="C16">
-        <v>0.4266202957981875</v>
+        <v>0.2848256465825898</v>
       </c>
       <c r="D16">
-        <v>0.04511139378438855</v>
+        <v>0.02453253452055293</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8752634098664487</v>
+        <v>0.7667008196637823</v>
       </c>
       <c r="G16">
-        <v>0.0007676077507329107</v>
+        <v>0.002406502520839253</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6087250186689488</v>
+        <v>0.3484404831716574</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.567518195071834</v>
+        <v>1.092544604436647</v>
       </c>
       <c r="O16">
-        <v>2.452051748832247</v>
+        <v>2.543338110689945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.092458086948511</v>
+        <v>1.549188055150182</v>
       </c>
       <c r="C17">
-        <v>0.4153757659997552</v>
+        <v>0.2811055299021632</v>
       </c>
       <c r="D17">
-        <v>0.04369860474676557</v>
+        <v>0.0240517313675781</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.843976267800187</v>
+        <v>0.7614984047830262</v>
       </c>
       <c r="G17">
-        <v>0.0007695232658032664</v>
+        <v>0.002407678314800355</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5837168096602596</v>
+        <v>0.3425372780442899</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5769712577355008</v>
+        <v>1.096811986589479</v>
       </c>
       <c r="O17">
-        <v>2.37174113058208</v>
+        <v>2.532929954954483</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.988980380982412</v>
+        <v>1.519715878108514</v>
       </c>
       <c r="C18">
-        <v>0.4089095624019592</v>
+        <v>0.2789627454623655</v>
       </c>
       <c r="D18">
-        <v>0.04288589556963984</v>
+        <v>0.02377469644802943</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8261913776081968</v>
+        <v>0.7585595488479697</v>
       </c>
       <c r="G18">
-        <v>0.000770632331450906</v>
+        <v>0.002408364180841042</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5694186927042466</v>
+        <v>0.339159608823806</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5825450250969197</v>
+        <v>1.099314762360322</v>
       </c>
       <c r="O18">
-        <v>2.326226378359735</v>
+        <v>2.527123216300083</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.953984397687918</v>
+        <v>1.50974064512269</v>
       </c>
       <c r="C19">
-        <v>0.4067204032853908</v>
+        <v>0.2782367132313084</v>
       </c>
       <c r="D19">
-        <v>0.04261070182111126</v>
+        <v>0.0236808136699338</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8202048532516102</v>
+        <v>0.7575736732718497</v>
       </c>
       <c r="G19">
-        <v>0.0007710091175515354</v>
+        <v>0.002408598050701226</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5645918563804315</v>
+        <v>0.3380190275957773</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5844552774883596</v>
+        <v>1.100170452092719</v>
       </c>
       <c r="O19">
-        <v>2.310929007748598</v>
+        <v>2.525188001107608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.111628840746562</v>
+        <v>1.554644364676278</v>
       </c>
       <c r="C20">
-        <v>0.4165726143654922</v>
+        <v>0.2815018618523766</v>
       </c>
       <c r="D20">
-        <v>0.04384900865923669</v>
+        <v>0.02410296450150895</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8472847861286681</v>
+        <v>0.7620466786758442</v>
       </c>
       <c r="G20">
-        <v>0.0007693186039059209</v>
+        <v>0.002407552158454469</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5863699614995852</v>
+        <v>0.3431638525719904</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.575950729683953</v>
+        <v>1.096352718335197</v>
       </c>
       <c r="O20">
-        <v>2.380219401179062</v>
+        <v>2.534019310336589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.644342697843513</v>
+        <v>1.70575494765734</v>
       </c>
       <c r="C21">
-        <v>0.4496944148529849</v>
+        <v>0.2924352197980227</v>
       </c>
       <c r="D21">
-        <v>0.0480086531813626</v>
+        <v>0.02551543981378046</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9408663423869541</v>
+        <v>0.777714323279227</v>
       </c>
       <c r="G21">
-        <v>0.0007637245660369172</v>
+        <v>0.002404152411764529</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6606065547146898</v>
+        <v>0.360661226482847</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5490389222720395</v>
+        <v>1.084102705389185</v>
       </c>
       <c r="O21">
-        <v>2.621373911397484</v>
+        <v>2.565840985061612</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.995124243584769</v>
+        <v>1.804686446752441</v>
       </c>
       <c r="C22">
-        <v>0.4713646017320912</v>
+        <v>0.2995522569726177</v>
       </c>
       <c r="D22">
-        <v>0.0507275534994136</v>
+        <v>0.02643408289061</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.00415087935832</v>
+        <v>0.7884314478071701</v>
       </c>
       <c r="G22">
-        <v>0.0007601289896600929</v>
+        <v>0.002402015319382875</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7100085868030561</v>
+        <v>0.3722544067578468</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5327601049601896</v>
+        <v>1.076526899138827</v>
       </c>
       <c r="O22">
-        <v>2.785793763490517</v>
+        <v>2.588244991461352</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.807642217360751</v>
+        <v>1.751869558255692</v>
       </c>
       <c r="C23">
-        <v>0.4597961203246541</v>
+        <v>0.2957564296020223</v>
       </c>
       <c r="D23">
-        <v>0.04927632717329544</v>
+        <v>0.0259442030526742</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9701678394149269</v>
+        <v>0.7826677572749929</v>
       </c>
       <c r="G23">
-        <v>0.0007620427211287854</v>
+        <v>0.002403148185720366</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6835548568335952</v>
+        <v>0.3660524829915204</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5413238722123452</v>
+        <v>1.080530864561503</v>
       </c>
       <c r="O23">
-        <v>2.697377127756965</v>
+        <v>2.576140248668992</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102961137460625</v>
+        <v>1.552177545161555</v>
       </c>
       <c r="C24">
-        <v>0.4160315242393153</v>
+        <v>0.281322692747608</v>
       </c>
       <c r="D24">
-        <v>0.0437810125531044</v>
+        <v>0.0240798039150576</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8457883769070804</v>
+        <v>0.76179864183392</v>
       </c>
       <c r="G24">
-        <v>0.0007694111071531963</v>
+        <v>0.002407609162966118</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5851702254091293</v>
+        <v>0.342880527888326</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5764116782310182</v>
+        <v>1.09656019963041</v>
       </c>
       <c r="O24">
-        <v>2.376384337330165</v>
+        <v>2.533526261330906</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.35191019579986</v>
+        <v>1.337560787489736</v>
       </c>
       <c r="C25">
-        <v>0.368870804309239</v>
+        <v>0.2656367911270081</v>
       </c>
       <c r="D25">
-        <v>0.03784858563687266</v>
+        <v>0.02205009807880742</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7195563648169241</v>
+        <v>0.7413298013254348</v>
       </c>
       <c r="G25">
-        <v>0.0007776410010748404</v>
+        <v>0.002412787624081473</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4822738143562191</v>
+        <v>0.3185623341816637</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.619436743821403</v>
+        <v>1.11569659447791</v>
       </c>
       <c r="O25">
-        <v>2.055674003454953</v>
+        <v>2.494428788419185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.180224853344214</v>
+        <v>2.804385974717832</v>
       </c>
       <c r="C2">
-        <v>0.2539906260882248</v>
+        <v>0.3341271495041553</v>
       </c>
       <c r="D2">
-        <v>0.02053995338318515</v>
+        <v>0.03346929983656821</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7280012243653715</v>
+        <v>0.6322193245613406</v>
       </c>
       <c r="G2">
-        <v>0.002416919059712845</v>
+        <v>0.0007839669085691445</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3012337838743093</v>
+        <v>0.408699189788635</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.131375548652215</v>
+        <v>0.6551255101882845</v>
       </c>
       <c r="O2">
-        <v>2.471504930964642</v>
+        <v>1.83771188100738</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.074033237016806</v>
+        <v>2.435698271177728</v>
       </c>
       <c r="C3">
-        <v>0.2460396903492352</v>
+        <v>0.3105434183210889</v>
       </c>
       <c r="D3">
-        <v>0.01950694037844514</v>
+        <v>0.03049132459289794</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7200488682179014</v>
+        <v>0.5759793475813382</v>
       </c>
       <c r="G3">
-        <v>0.002419919344888023</v>
+        <v>0.0007884310171172068</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2898477225839855</v>
+        <v>0.3599367457849922</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.142993163231139</v>
+        <v>0.6816127025992387</v>
       </c>
       <c r="O3">
-        <v>2.459605702162378</v>
+        <v>1.699627777055156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.009051118173829</v>
+        <v>2.210183918246173</v>
       </c>
       <c r="C4">
-        <v>0.2411298925041763</v>
+        <v>0.2960371658856644</v>
       </c>
       <c r="D4">
-        <v>0.01886802895757356</v>
+        <v>0.02865699244779663</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7156971790199265</v>
+        <v>0.5427359242229244</v>
       </c>
       <c r="G4">
-        <v>0.00242186091108422</v>
+        <v>0.0007912626215288919</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2830325509734593</v>
+        <v>0.3304588961454016</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.150615897478787</v>
+        <v>0.6989494990843497</v>
       </c>
       <c r="O4">
-        <v>2.454086847459706</v>
+        <v>1.619075974603305</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9826269491833841</v>
+        <v>2.118460037310399</v>
       </c>
       <c r="C5">
-        <v>0.2391222588468622</v>
+        <v>0.2901184102132532</v>
       </c>
       <c r="D5">
-        <v>0.018606518919416</v>
+        <v>0.0279079137066347</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7140571777443512</v>
+        <v>0.5294897718482332</v>
       </c>
       <c r="G5">
-        <v>0.002422677180639073</v>
+        <v>0.0007924397702143469</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2802995456740121</v>
+        <v>0.3185517487334124</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.153845331402536</v>
+        <v>0.7062756924299514</v>
       </c>
       <c r="O5">
-        <v>2.452286558987822</v>
+        <v>1.587242752853996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9782426901090844</v>
+        <v>2.103238762615661</v>
       </c>
       <c r="C6">
-        <v>0.2387884837983449</v>
+        <v>0.289135138301063</v>
       </c>
       <c r="D6">
-        <v>0.01856302653275677</v>
+        <v>0.02778343185980248</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7137929048171259</v>
+        <v>0.5273077744795103</v>
       </c>
       <c r="G6">
-        <v>0.002422814237536609</v>
+        <v>0.0007926366519643845</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2798484036993187</v>
+        <v>0.3165806272958349</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.154389012716074</v>
+        <v>0.7075077399794196</v>
       </c>
       <c r="O6">
-        <v>2.452014700408739</v>
+        <v>1.582014771397411</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.008694521858217</v>
+        <v>2.20894624224178</v>
       </c>
       <c r="C7">
-        <v>0.2411028443775649</v>
+        <v>0.2959573742814285</v>
       </c>
       <c r="D7">
-        <v>0.01886450676789408</v>
+        <v>0.02864689661173969</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.715674521736581</v>
+        <v>0.5425560936410108</v>
       </c>
       <c r="G7">
-        <v>0.002421871817924536</v>
+        <v>0.0007912784022516815</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2829955136150488</v>
+        <v>0.3302978998435577</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.150658952259668</v>
+        <v>0.699047255732026</v>
       </c>
       <c r="O7">
-        <v>2.454060752408139</v>
+        <v>1.61864273520294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.143565052050917</v>
+        <v>2.677057765717166</v>
       </c>
       <c r="C8">
-        <v>0.2512550271080443</v>
+        <v>0.3260002686435826</v>
       </c>
       <c r="D8">
-        <v>0.02018474322260033</v>
+        <v>0.03244364016925516</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7251488996480404</v>
+        <v>0.6125461168068043</v>
       </c>
       <c r="G8">
-        <v>0.002417932977752616</v>
+        <v>0.0007854876078467878</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2972713523129045</v>
+        <v>0.3917830955246586</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.135279727309694</v>
+        <v>0.664030128020201</v>
       </c>
       <c r="O8">
-        <v>2.467030657910016</v>
+        <v>1.789177467206571</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.409749346976128</v>
+        <v>3.603906371400058</v>
       </c>
       <c r="C9">
-        <v>0.2709359029755092</v>
+        <v>0.3847563105140637</v>
       </c>
       <c r="D9">
-        <v>0.022736269993338</v>
+        <v>0.03984824280378518</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7479532027217459</v>
+        <v>0.761129735271254</v>
       </c>
       <c r="G9">
-        <v>0.002410993985511034</v>
+        <v>0.0007748289047785201</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3266640483859504</v>
+        <v>0.5165575483669471</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.109003727147019</v>
+        <v>0.6042926362343977</v>
       </c>
       <c r="O9">
-        <v>2.506685156329638</v>
+        <v>2.160642350772775</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606317622865845</v>
+        <v>4.293398569430508</v>
       </c>
       <c r="C10">
-        <v>0.285249717485101</v>
+        <v>0.4279035940678</v>
       </c>
       <c r="D10">
-        <v>0.02458733070753993</v>
+        <v>0.04527259214647472</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7673016974697333</v>
+        <v>0.878862844673705</v>
       </c>
       <c r="G10">
-        <v>0.002406369651095979</v>
+        <v>0.0007673901526972537</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3491164782368514</v>
+        <v>0.6115906634803281</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.092064210790404</v>
+        <v>0.5664583518062898</v>
       </c>
       <c r="O10">
-        <v>2.544550131791766</v>
+        <v>2.461310129599099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.695953021508501</v>
+        <v>4.609678230726956</v>
       </c>
       <c r="C11">
-        <v>0.2917283985389076</v>
+        <v>0.4475470009869298</v>
       </c>
       <c r="D11">
-        <v>0.02542417310792189</v>
+        <v>0.04773911627400196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7766712805646847</v>
+        <v>0.9346826466571372</v>
       </c>
       <c r="G11">
-        <v>0.00240436775848868</v>
+        <v>0.0007640834529604817</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3595182339012268</v>
+        <v>0.6557465297395879</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.08487141456002</v>
+        <v>0.550707951056296</v>
       </c>
       <c r="O11">
-        <v>2.563685432565791</v>
+        <v>2.60536305811533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.7299256187938</v>
+        <v>4.729890371859653</v>
       </c>
       <c r="C12">
-        <v>0.2941768511218186</v>
+        <v>0.4549893597946095</v>
       </c>
       <c r="D12">
-        <v>0.02574029815769308</v>
+        <v>0.0486731748854794</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.780301226414025</v>
+        <v>0.9561815108089036</v>
       </c>
       <c r="G12">
-        <v>0.002403624245672648</v>
+        <v>0.0007628417086215084</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3634841969345217</v>
+        <v>0.6726175393639551</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.082221476119663</v>
+        <v>0.544967095777082</v>
       </c>
       <c r="O12">
-        <v>2.571207136525572</v>
+        <v>2.661071300818492</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.722607716690391</v>
+        <v>4.703979678849521</v>
       </c>
       <c r="C13">
-        <v>0.2936497530100155</v>
+        <v>0.4533863171408825</v>
       </c>
       <c r="D13">
-        <v>0.02567224947829061</v>
+        <v>0.04847200367579063</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7795158069612</v>
+        <v>0.9515346844886778</v>
       </c>
       <c r="G13">
-        <v>0.002403783727919154</v>
+        <v>0.000763108687787988</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3626288529701611</v>
+        <v>0.6689770999035005</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.082788904070846</v>
+        <v>0.546193327241447</v>
       </c>
       <c r="O13">
-        <v>2.56957493250647</v>
+        <v>2.649020127434227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.698747381805447</v>
+        <v>4.619558860095992</v>
       </c>
       <c r="C14">
-        <v>0.2919299330731064</v>
+        <v>0.4481592018514107</v>
       </c>
       <c r="D14">
-        <v>0.02545019642720803</v>
+        <v>0.04781595989494747</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.77696827591447</v>
+        <v>0.9364439186671234</v>
       </c>
       <c r="G14">
-        <v>0.002404306297666475</v>
+        <v>0.0007639810888941626</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3598439740378296</v>
+        <v>0.6571314055753987</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.084651922884568</v>
+        <v>0.5502310878914969</v>
       </c>
       <c r="O14">
-        <v>2.564298719606313</v>
+        <v>2.609922316298281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.684136054113537</v>
+        <v>4.567908541186739</v>
       </c>
       <c r="C15">
-        <v>0.290875852580939</v>
+        <v>0.4449579915861079</v>
       </c>
       <c r="D15">
-        <v>0.02531408180700367</v>
+        <v>0.04741412521793364</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7754185106797138</v>
+        <v>0.927248527612349</v>
       </c>
       <c r="G15">
-        <v>0.002404628281024394</v>
+        <v>0.0007645167972622352</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3581416773446762</v>
+        <v>0.6498956614008762</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.085802690114178</v>
+        <v>0.5527338530946722</v>
       </c>
       <c r="O15">
-        <v>2.561102801633922</v>
+        <v>2.586128130781901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600463957870147</v>
+        <v>4.272787333729866</v>
       </c>
       <c r="C16">
-        <v>0.2848256465825898</v>
+        <v>0.4266202957983012</v>
       </c>
       <c r="D16">
-        <v>0.02453253452055293</v>
+        <v>0.0451113937844454</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7667008196637823</v>
+        <v>0.8752634098664487</v>
       </c>
       <c r="G16">
-        <v>0.002406502520839253</v>
+        <v>0.0007676077507329504</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3484404831716574</v>
+        <v>0.6087250186688919</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.092544604436647</v>
+        <v>0.5675181950717985</v>
       </c>
       <c r="O16">
-        <v>2.543338110689945</v>
+        <v>2.452051748832304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.549188055150182</v>
+        <v>4.092458086948568</v>
       </c>
       <c r="C17">
-        <v>0.2811055299021632</v>
+        <v>0.4153757659998405</v>
       </c>
       <c r="D17">
-        <v>0.0240517313675781</v>
+        <v>0.04369860474664478</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7614984047830262</v>
+        <v>0.843976267800187</v>
       </c>
       <c r="G17">
-        <v>0.002407678314800355</v>
+        <v>0.0007695232658311631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3425372780442899</v>
+        <v>0.5837168096603023</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.096811986589479</v>
+        <v>0.5769712577354937</v>
       </c>
       <c r="O17">
-        <v>2.532929954954483</v>
+        <v>2.371741130582024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.519715878108514</v>
+        <v>3.988980380982525</v>
       </c>
       <c r="C18">
-        <v>0.2789627454623655</v>
+        <v>0.4089095624019308</v>
       </c>
       <c r="D18">
-        <v>0.02377469644802943</v>
+        <v>0.04288589556941957</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7585595488479697</v>
+        <v>0.826191377608211</v>
       </c>
       <c r="G18">
-        <v>0.002408364180841042</v>
+        <v>0.0007706323314513431</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.339159608823806</v>
+        <v>0.5694186927042892</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.099314762360322</v>
+        <v>0.5825450250969268</v>
       </c>
       <c r="O18">
-        <v>2.527123216300083</v>
+        <v>2.326226378359792</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.50974064512269</v>
+        <v>3.953984397687861</v>
       </c>
       <c r="C19">
-        <v>0.2782367132313084</v>
+        <v>0.4067204032851919</v>
       </c>
       <c r="D19">
-        <v>0.0236808136699338</v>
+        <v>0.0426107018212889</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7575736732718497</v>
+        <v>0.820204853251596</v>
       </c>
       <c r="G19">
-        <v>0.002408598050701226</v>
+        <v>0.000771009117552338</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3380190275957773</v>
+        <v>0.564591856380332</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.100170452092719</v>
+        <v>0.5844552774884093</v>
       </c>
       <c r="O19">
-        <v>2.525188001107608</v>
+        <v>2.310929007748598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.554644364676278</v>
+        <v>4.111628840746619</v>
       </c>
       <c r="C20">
-        <v>0.2815018618523766</v>
+        <v>0.4165726143654638</v>
       </c>
       <c r="D20">
-        <v>0.02410296450150895</v>
+        <v>0.04384900865913721</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7620466786758442</v>
+        <v>0.8472847861286823</v>
       </c>
       <c r="G20">
-        <v>0.002407552158454469</v>
+        <v>0.0007693186039069075</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3431638525719904</v>
+        <v>0.586369961499642</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.096352718335197</v>
+        <v>0.5759507296839601</v>
       </c>
       <c r="O20">
-        <v>2.534019310336589</v>
+        <v>2.380219401179062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.70575494765734</v>
+        <v>4.644342697843399</v>
       </c>
       <c r="C21">
-        <v>0.2924352197980227</v>
+        <v>0.4496944148530986</v>
       </c>
       <c r="D21">
-        <v>0.02551543981378046</v>
+        <v>0.04800865318136971</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.777714323279227</v>
+        <v>0.9408663423869825</v>
       </c>
       <c r="G21">
-        <v>0.002404152411764529</v>
+        <v>0.000763724566036333</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.360661226482847</v>
+        <v>0.6606065547146613</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.084102705389185</v>
+        <v>0.5490389222720466</v>
       </c>
       <c r="O21">
-        <v>2.565840985061612</v>
+        <v>2.621373911397427</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.804686446752441</v>
+        <v>4.995124243584598</v>
       </c>
       <c r="C22">
-        <v>0.2995522569726177</v>
+        <v>0.4713646017320627</v>
       </c>
       <c r="D22">
-        <v>0.02643408289061</v>
+        <v>0.05072755349942071</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7884314478071701</v>
+        <v>1.00415087935832</v>
       </c>
       <c r="G22">
-        <v>0.002402015319382875</v>
+        <v>0.000760128989689376</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3722544067578468</v>
+        <v>0.7100085868030703</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.076526899138827</v>
+        <v>0.5327601049601824</v>
       </c>
       <c r="O22">
-        <v>2.588244991461352</v>
+        <v>2.785793763490545</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.751869558255692</v>
+        <v>4.807642217360808</v>
       </c>
       <c r="C23">
-        <v>0.2957564296020223</v>
+        <v>0.4597961203247962</v>
       </c>
       <c r="D23">
-        <v>0.0259442030526742</v>
+        <v>0.04927632717334518</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7826677572749929</v>
+        <v>0.9701678394149411</v>
       </c>
       <c r="G23">
-        <v>0.002403148185720366</v>
+        <v>0.0007620427211615134</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3660524829915204</v>
+        <v>0.6835548568334957</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.080530864561503</v>
+        <v>0.5413238722123452</v>
       </c>
       <c r="O23">
-        <v>2.576140248668992</v>
+        <v>2.697377127756994</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.552177545161555</v>
+        <v>4.102961137460568</v>
       </c>
       <c r="C24">
-        <v>0.281322692747608</v>
+        <v>0.4160315242395711</v>
       </c>
       <c r="D24">
-        <v>0.0240798039150576</v>
+        <v>0.04378101255306177</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.76179864183392</v>
+        <v>0.8457883769070946</v>
       </c>
       <c r="G24">
-        <v>0.002407609162966118</v>
+        <v>0.0007694111071822007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.342880527888326</v>
+        <v>0.5851702254091293</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.09656019963041</v>
+        <v>0.5764116782310253</v>
       </c>
       <c r="O24">
-        <v>2.533526261330906</v>
+        <v>2.376384337330165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.337560787489736</v>
+        <v>3.351910195799746</v>
       </c>
       <c r="C25">
-        <v>0.2656367911270081</v>
+        <v>0.3688708043091111</v>
       </c>
       <c r="D25">
-        <v>0.02205009807880742</v>
+        <v>0.03784858563646765</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7413298013254348</v>
+        <v>0.7195563648169099</v>
       </c>
       <c r="G25">
-        <v>0.002412787624081473</v>
+        <v>0.0007776410011593776</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3185623341816637</v>
+        <v>0.4822738143563186</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.11569659447791</v>
+        <v>0.6194367438214101</v>
       </c>
       <c r="O25">
-        <v>2.494428788419185</v>
+        <v>2.055674003454953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.804385974717832</v>
+        <v>1.842400215819367</v>
       </c>
       <c r="C2">
-        <v>0.3341271495041553</v>
+        <v>0.6576315418224397</v>
       </c>
       <c r="D2">
-        <v>0.03346929983656821</v>
+        <v>0.02635359875263887</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6322193245613406</v>
+        <v>0.7781996233642303</v>
       </c>
       <c r="G2">
-        <v>0.0007839669085691445</v>
+        <v>0.6955092278187607</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004267445475809595</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005683952810962456</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4444738175409952</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3723852176270555</v>
       </c>
       <c r="L2">
-        <v>0.408699189788635</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6551255101882845</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.83771188100738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.531186634320932</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.435698271177728</v>
+        <v>1.608759570649227</v>
       </c>
       <c r="C3">
-        <v>0.3105434183210889</v>
+        <v>0.5800334335709181</v>
       </c>
       <c r="D3">
-        <v>0.03049132459289794</v>
+        <v>0.02447414271116344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5759793475813382</v>
+        <v>0.7030214818237539</v>
       </c>
       <c r="G3">
-        <v>0.0007884310171172068</v>
+        <v>0.625926749324293</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.050881069415311E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003433119763267101</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4173550046318013</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3567796798735152</v>
       </c>
       <c r="L3">
-        <v>0.3599367457849922</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6816127025992387</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.699627777055156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.198758986741666</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.210183918246173</v>
+        <v>1.465040377046449</v>
       </c>
       <c r="C4">
-        <v>0.2960371658856644</v>
+        <v>0.5327566106754773</v>
       </c>
       <c r="D4">
-        <v>0.02865699244779663</v>
+        <v>0.02332501036590529</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5427359242229244</v>
+        <v>0.6575869666651997</v>
       </c>
       <c r="G4">
-        <v>0.0007912626215288919</v>
+        <v>0.5838381471991596</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.198533628001599E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002349370143502671</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4011147045094674</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3474684623392115</v>
       </c>
       <c r="L4">
-        <v>0.3304588961454016</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6989494990843497</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.619075974603305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.99542568077338</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.118460037310399</v>
+        <v>1.406348396843867</v>
       </c>
       <c r="C5">
-        <v>0.2901184102132532</v>
+        <v>0.514402843723559</v>
       </c>
       <c r="D5">
-        <v>0.0279079137066347</v>
+        <v>0.02291599010619905</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5294897718482332</v>
+        <v>0.6380192026172367</v>
       </c>
       <c r="G5">
-        <v>0.0007924397702143469</v>
+        <v>0.5654808580785726</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.768133925813771E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002033361299277114</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3939000439942504</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3428511394473759</v>
       </c>
       <c r="L5">
-        <v>0.3185517487334124</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7062756924299514</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.587242752853996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.912704799332289</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.103238762615661</v>
+        <v>1.396539285575102</v>
       </c>
       <c r="C6">
-        <v>0.289135138301063</v>
+        <v>0.5123808937474621</v>
       </c>
       <c r="D6">
-        <v>0.02778343185980248</v>
+        <v>0.02291971438426188</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5273077744795103</v>
+        <v>0.6332943037862862</v>
       </c>
       <c r="G6">
-        <v>0.0007926366519643845</v>
+        <v>0.5607966166893732</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001122789262772983</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002061234706340898</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3918634858997052</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3410095894785385</v>
       </c>
       <c r="L6">
-        <v>0.3165806272958349</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7075077399794196</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.582014771397411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.898962619586825</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.20894624224178</v>
+        <v>1.464088218740528</v>
       </c>
       <c r="C7">
-        <v>0.2959573742814285</v>
+        <v>0.5353049168965072</v>
       </c>
       <c r="D7">
-        <v>0.02864689661173969</v>
+        <v>0.02351553707041276</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5425560936410108</v>
+        <v>0.6532586891087746</v>
       </c>
       <c r="G7">
-        <v>0.0007912784022516815</v>
+        <v>0.5790897631813294</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.282478555277635E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002537008736536173</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3987091482976837</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.344456134687686</v>
       </c>
       <c r="L7">
-        <v>0.3302978998435577</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.699047255732026</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.61864273520294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.994269692972139</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.677057765717166</v>
+        <v>1.761668277556737</v>
       </c>
       <c r="C8">
-        <v>0.3260002686435826</v>
+        <v>0.6345278826875642</v>
       </c>
       <c r="D8">
-        <v>0.03244364016925516</v>
+        <v>0.02596775296770915</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6125461168068043</v>
+        <v>0.7467099258969228</v>
       </c>
       <c r="G8">
-        <v>0.0007854876078467878</v>
+        <v>0.6653836755023406</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002289865677007619</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005063245825734697</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4319712559674684</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3630321164745851</v>
       </c>
       <c r="L8">
-        <v>0.3917830955246586</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.664030128020201</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.789177467206571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.416319389477536</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.603906371400058</v>
+        <v>2.344032524647673</v>
       </c>
       <c r="C9">
-        <v>0.3847563105140637</v>
+        <v>0.8276150603124108</v>
       </c>
       <c r="D9">
-        <v>0.03984824280378518</v>
+        <v>0.03046474060792903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.761129735271254</v>
+        <v>0.9440335748767978</v>
       </c>
       <c r="G9">
-        <v>0.0007748289047785201</v>
+        <v>0.848748942657636</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00290845557056163</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01238850647616552</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5050486926034807</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4072635930808559</v>
       </c>
       <c r="L9">
-        <v>0.5165575483669471</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6042926362343977</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.160642350772775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.2524068517817</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.293398569430508</v>
+        <v>2.827565281019133</v>
       </c>
       <c r="C10">
-        <v>0.4279035940678</v>
+        <v>0.9887327302772349</v>
       </c>
       <c r="D10">
-        <v>0.04527259214647472</v>
+        <v>0.03496185304735633</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.878862844673705</v>
+        <v>1.07163255321889</v>
       </c>
       <c r="G10">
-        <v>0.0007673901526972537</v>
+        <v>0.9631873329744423</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00610471679064517</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01977351269603034</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5487082228915057</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4253269768668773</v>
       </c>
       <c r="L10">
-        <v>0.6115906634803281</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5664583518062898</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.461310129599099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.67231124312066</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.609678230726956</v>
+        <v>3.566014346657482</v>
       </c>
       <c r="C11">
-        <v>0.4475470009869298</v>
+        <v>1.204672287954992</v>
       </c>
       <c r="D11">
-        <v>0.04773911627400196</v>
+        <v>0.04811957940441403</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9346826466571372</v>
+        <v>0.9499058222436645</v>
       </c>
       <c r="G11">
-        <v>0.0007640834529604817</v>
+        <v>0.8183798568396412</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02174049341301298</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02322856375323301</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4678495080051022</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3108909431090154</v>
       </c>
       <c r="L11">
-        <v>0.6557465297395879</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.550707951056296</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.60536305811533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.315854083846872</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.729890371859653</v>
+        <v>4.133689627581873</v>
       </c>
       <c r="C12">
-        <v>0.4549893597946095</v>
+        <v>1.359794352305471</v>
       </c>
       <c r="D12">
-        <v>0.0486731748854794</v>
+        <v>0.05988807022247755</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9561815108089036</v>
+        <v>0.8343894628638537</v>
       </c>
       <c r="G12">
-        <v>0.0007628417086215084</v>
+        <v>0.6907701412704341</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05882659322385564</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0245058408985539</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3992856981372199</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2291860315366137</v>
       </c>
       <c r="L12">
-        <v>0.6726175393639551</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.544967095777082</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.661071300818492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.360395182774312</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.703979678849521</v>
+        <v>4.594700329815055</v>
       </c>
       <c r="C13">
-        <v>0.4533863171408825</v>
+        <v>1.479291859652506</v>
       </c>
       <c r="D13">
-        <v>0.04847200367579063</v>
+        <v>0.07135674366694644</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9515346844886778</v>
+        <v>0.7100682150324502</v>
       </c>
       <c r="G13">
-        <v>0.000763108687787988</v>
+        <v>0.5613296220892323</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136577568365169</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02429089663163175</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3322230363961296</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1625504069129065</v>
       </c>
       <c r="L13">
-        <v>0.6689770999035005</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.546193327241447</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.649020127434227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6511159416506302</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.619558860095992</v>
+        <v>4.87028125359808</v>
       </c>
       <c r="C14">
-        <v>0.4481592018514107</v>
+        <v>1.54824213044617</v>
       </c>
       <c r="D14">
-        <v>0.04781595989494747</v>
+        <v>0.0794658252032221</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9364439186671234</v>
+        <v>0.6195769747246516</v>
       </c>
       <c r="G14">
-        <v>0.0007639810888941626</v>
+        <v>0.470821789094316</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626511643594597</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02355592117081162</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2863107902881268</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1239872845168968</v>
       </c>
       <c r="L14">
-        <v>0.6571314055753987</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5502310878914969</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.609922316298281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3001623765062362</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.567908541186739</v>
+        <v>4.907286014365241</v>
       </c>
       <c r="C15">
-        <v>0.4449579915861079</v>
+        <v>1.557200647306729</v>
       </c>
       <c r="D15">
-        <v>0.04741412521793364</v>
+        <v>0.08125020711522524</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.927248527612349</v>
+        <v>0.5935913434000426</v>
       </c>
       <c r="G15">
-        <v>0.0007645167972622352</v>
+        <v>0.4458044448543887</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750788354343058</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02309674374889692</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2741924000430771</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.11550575414444</v>
       </c>
       <c r="L15">
-        <v>0.6498956614008762</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5527338530946722</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.586128130781901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2326905160345341</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.272787333729866</v>
+        <v>4.585622715762725</v>
       </c>
       <c r="C16">
-        <v>0.4266202957983012</v>
+        <v>1.459969815169643</v>
       </c>
       <c r="D16">
-        <v>0.0451113937844454</v>
+        <v>0.0766581889763458</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8752634098664487</v>
+        <v>0.5629911396340006</v>
       </c>
       <c r="G16">
-        <v>0.0007676077507329504</v>
+        <v>0.4220261194304413</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620863568110735</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01964090083265368</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2682260994785821</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1202271940955555</v>
       </c>
       <c r="L16">
-        <v>0.6087250186688919</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5675181950717985</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.452051748832304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2275256081250419</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.092458086948568</v>
+        <v>4.192929197383876</v>
       </c>
       <c r="C17">
-        <v>0.4153757659998405</v>
+        <v>1.34905381092301</v>
       </c>
       <c r="D17">
-        <v>0.04369860474664478</v>
+        <v>0.06877312860846274</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.843976267800187</v>
+        <v>0.5868197209629216</v>
       </c>
       <c r="G17">
-        <v>0.0007695232658311631</v>
+        <v>0.4507062433194875</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241894694573631</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01751583679312319</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2875794958362832</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1431492647742409</v>
       </c>
       <c r="L17">
-        <v>0.5837168096603023</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5769712577354937</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.371741130582024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.383059415042041</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.988980380982525</v>
+        <v>3.71270347811793</v>
       </c>
       <c r="C18">
-        <v>0.4089095624019308</v>
+        <v>1.214996569105551</v>
       </c>
       <c r="D18">
-        <v>0.04288589556941957</v>
+        <v>0.05767519583504566</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.826191377608211</v>
+        <v>0.6665405149498582</v>
       </c>
       <c r="G18">
-        <v>0.0007706323314513431</v>
+        <v>0.5360292036274359</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07141895927668429</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01608230179288483</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3348632917462879</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1921943053491866</v>
       </c>
       <c r="L18">
-        <v>0.5694186927042892</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5825450250969268</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.326226378359792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8196569179701001</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.953984397687861</v>
+        <v>3.221325386561546</v>
       </c>
       <c r="C19">
-        <v>0.4067204032851919</v>
+        <v>1.085247424590278</v>
       </c>
       <c r="D19">
-        <v>0.0426107018212889</v>
+        <v>0.04662500606580977</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.820204853251596</v>
+        <v>0.7858175552522653</v>
       </c>
       <c r="G19">
-        <v>0.000771009117552338</v>
+        <v>0.6635837407341825</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02684658193293643</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01586512467403445</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4021331907461985</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2657543164699838</v>
       </c>
       <c r="L19">
-        <v>0.564591856380332</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5844552774884093</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.310929007748598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.647882338963029</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.111628840746619</v>
+        <v>2.702099656861265</v>
       </c>
       <c r="C20">
-        <v>0.4165726143654638</v>
+        <v>0.9558399730430267</v>
       </c>
       <c r="D20">
-        <v>0.04384900865913721</v>
+        <v>0.03447903009986675</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8472847861286823</v>
+        <v>1.024061347189686</v>
       </c>
       <c r="G20">
-        <v>0.0007693186039069075</v>
+        <v>0.9176526907148315</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005118812099419223</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01824237540229134</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5293509799128486</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4107151385149876</v>
       </c>
       <c r="L20">
-        <v>0.586369961499642</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5759507296839601</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.380219401179062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.553131508813209</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.644342697843399</v>
+        <v>2.987589311935153</v>
       </c>
       <c r="C21">
-        <v>0.4496944148530986</v>
+        <v>1.056186711994314</v>
       </c>
       <c r="D21">
-        <v>0.04800865318136971</v>
+        <v>0.03617670431954423</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9408663423869825</v>
+        <v>1.159203660670812</v>
       </c>
       <c r="G21">
-        <v>0.000763724566036333</v>
+        <v>1.046288951512636</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008978307920538581</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02470476059749416</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5837562306946467</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.450519534176081</v>
       </c>
       <c r="L21">
-        <v>0.6606065547146613</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5490389222720466</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.621373911397427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.192142434504916</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.995124243584598</v>
+        <v>3.203001328178402</v>
       </c>
       <c r="C22">
-        <v>0.4713646017320627</v>
+        <v>1.126388337921099</v>
       </c>
       <c r="D22">
-        <v>0.05072755349942071</v>
+        <v>0.03756508178026507</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.00415087935832</v>
+        <v>1.243822523870293</v>
       </c>
       <c r="G22">
-        <v>0.000760128989689376</v>
+        <v>1.126034584854835</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01168450213767558</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02916546528492336</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6171082429829085</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4733430092204856</v>
       </c>
       <c r="L22">
-        <v>0.7100085868030703</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5327601049601824</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.785793763490545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.509521881154711</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.807642217360808</v>
+        <v>3.088214916893037</v>
       </c>
       <c r="C23">
-        <v>0.4597961203247962</v>
+        <v>1.085392910599097</v>
       </c>
       <c r="D23">
-        <v>0.04927632717334518</v>
+        <v>0.03657496159988227</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9701678394149411</v>
+        <v>1.203383821116077</v>
       </c>
       <c r="G23">
-        <v>0.0007620427211615134</v>
+        <v>1.0887309950472</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01020212210152081</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02652349202223458</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6019703464457677</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4645873075682942</v>
       </c>
       <c r="L23">
-        <v>0.6835548568334957</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5413238722123452</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.697377127756994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.339929931571149</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102961137460568</v>
+        <v>2.653872352635801</v>
       </c>
       <c r="C24">
-        <v>0.4160315242395711</v>
+        <v>0.9373140213742772</v>
       </c>
       <c r="D24">
-        <v>0.04378101255306177</v>
+        <v>0.03323098555978632</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8457883769070946</v>
+        <v>1.045801454145646</v>
       </c>
       <c r="G24">
-        <v>0.0007694111071822007</v>
+        <v>0.9420446293107148</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00544536591265854</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01786067786384127</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5419645887741211</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4271912333217216</v>
       </c>
       <c r="L24">
-        <v>0.5851702254091293</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5764116782310253</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.376384337330165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.702941260928938</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.351910195799746</v>
+        <v>2.186239012942735</v>
       </c>
       <c r="C25">
-        <v>0.3688708043091111</v>
+        <v>0.7800798014635006</v>
       </c>
       <c r="D25">
-        <v>0.03784858563646765</v>
+        <v>0.02961112722121229</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7195563648169099</v>
+        <v>0.882364095531571</v>
       </c>
       <c r="G25">
-        <v>0.0007776410011593776</v>
+        <v>0.7901308416326032</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001902974846129002</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01039507250937532</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4806295186713783</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3896384962385682</v>
       </c>
       <c r="L25">
-        <v>0.4822738143563186</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6194367438214101</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.055674003454953</v>
+        <v>3.024914356002185</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.842400215819367</v>
+        <v>1.837682646594004</v>
       </c>
       <c r="C2">
-        <v>0.6576315418224397</v>
+        <v>0.7202720826966811</v>
       </c>
       <c r="D2">
-        <v>0.02635359875263887</v>
+        <v>0.0324722218247615</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7781996233642303</v>
+        <v>0.6788618019241568</v>
       </c>
       <c r="G2">
-        <v>0.6955092278187607</v>
+        <v>0.5669885424591001</v>
       </c>
       <c r="H2">
-        <v>0.0004267445475809595</v>
+        <v>0.0004083381023183286</v>
       </c>
       <c r="I2">
-        <v>0.005683952810962456</v>
+        <v>0.005270865063734753</v>
       </c>
       <c r="J2">
-        <v>0.4444738175409952</v>
+        <v>0.4380558758873008</v>
       </c>
       <c r="K2">
-        <v>0.3723852176270555</v>
+        <v>0.3016979848094721</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1713896465433358</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07171511848120105</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.531186634320932</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.529951923071863</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.608759570649227</v>
+        <v>1.60748198794613</v>
       </c>
       <c r="C3">
-        <v>0.5800334335709181</v>
+        <v>0.6288445126522504</v>
       </c>
       <c r="D3">
-        <v>0.02447414271116344</v>
+        <v>0.02926570010333052</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7030214818237539</v>
+        <v>0.6209550293178978</v>
       </c>
       <c r="G3">
-        <v>0.625926749324293</v>
+        <v>0.5158659848269735</v>
       </c>
       <c r="H3">
-        <v>2.050881069415311E-05</v>
+        <v>1.935271446429354E-05</v>
       </c>
       <c r="I3">
-        <v>0.003433119763267101</v>
+        <v>0.003400924330234201</v>
       </c>
       <c r="J3">
-        <v>0.4173550046318013</v>
+        <v>0.4177632847699613</v>
       </c>
       <c r="K3">
-        <v>0.3567796798735152</v>
+        <v>0.2964610459317782</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1750622704383851</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06457665095730647</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.198758986741666</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.198435838841846</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.465040377046449</v>
+        <v>1.46570712004285</v>
       </c>
       <c r="C4">
-        <v>0.5327566106754773</v>
+        <v>0.57324891753683</v>
       </c>
       <c r="D4">
-        <v>0.02332501036590529</v>
+        <v>0.02732015464786386</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6575869666651997</v>
+        <v>0.5858132963925158</v>
       </c>
       <c r="G4">
-        <v>0.5838381471991596</v>
+        <v>0.484977754113018</v>
       </c>
       <c r="H4">
-        <v>3.198533628001599E-05</v>
+        <v>3.119473984014576E-05</v>
       </c>
       <c r="I4">
-        <v>0.002349370143502671</v>
+        <v>0.002479376161151237</v>
       </c>
       <c r="J4">
-        <v>0.4011147045094674</v>
+        <v>0.4053275366376567</v>
       </c>
       <c r="K4">
-        <v>0.3474684623392115</v>
+        <v>0.2933612508240913</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1772796727585551</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06084084021011016</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.99542568077338</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.995590473034042</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406348396843867</v>
+        <v>1.407774057251885</v>
       </c>
       <c r="C5">
-        <v>0.514402843723559</v>
+        <v>0.5515387233544118</v>
       </c>
       <c r="D5">
-        <v>0.02291599010619905</v>
+        <v>0.02659648929542868</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6380192026172367</v>
+        <v>0.5705404489525492</v>
       </c>
       <c r="G5">
-        <v>0.5654808580785726</v>
+        <v>0.4713716867794631</v>
       </c>
       <c r="H5">
-        <v>9.768133925813771E-05</v>
+        <v>9.468016916747146E-05</v>
       </c>
       <c r="I5">
-        <v>0.002033361299277114</v>
+        <v>0.00222605625734662</v>
       </c>
       <c r="J5">
-        <v>0.3939000439942504</v>
+        <v>0.3996606572703882</v>
       </c>
       <c r="K5">
-        <v>0.3428511394473759</v>
+        <v>0.2914172273862832</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1778394933547247</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05927918586894165</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.912704799332289</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.913053728047799</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.396539285575102</v>
+        <v>1.398093329007452</v>
       </c>
       <c r="C6">
-        <v>0.5123808937474621</v>
+        <v>0.5489496542592178</v>
       </c>
       <c r="D6">
-        <v>0.02291971438426188</v>
+        <v>0.02655483260947733</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6332943037862862</v>
+        <v>0.5667373702274006</v>
       </c>
       <c r="G6">
-        <v>0.5607966166893732</v>
+        <v>0.4677426288075281</v>
       </c>
       <c r="H6">
-        <v>0.0001122789262772983</v>
+        <v>0.0001087609211203322</v>
       </c>
       <c r="I6">
-        <v>0.002061234706340898</v>
+        <v>0.002280916537451105</v>
       </c>
       <c r="J6">
-        <v>0.3918634858997052</v>
+        <v>0.3979849092898036</v>
       </c>
       <c r="K6">
-        <v>0.3410095894785385</v>
+        <v>0.2902361259437605</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1775253218636976</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05878698839900132</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.898962619586825</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.899342414234027</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.464088218740528</v>
+        <v>1.464702635237217</v>
       </c>
       <c r="C7">
-        <v>0.5353049168965072</v>
+        <v>0.5748488663001012</v>
       </c>
       <c r="D7">
-        <v>0.02351553707041276</v>
+        <v>0.02766063263899454</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6532586891087746</v>
+        <v>0.5800446118377351</v>
       </c>
       <c r="G7">
-        <v>0.5790897631813294</v>
+        <v>0.4838670015542306</v>
       </c>
       <c r="H7">
-        <v>3.282478555277635E-05</v>
+        <v>3.208552242339735E-05</v>
       </c>
       <c r="I7">
-        <v>0.002537008736536173</v>
+        <v>0.002708221246980891</v>
       </c>
       <c r="J7">
-        <v>0.3987091482976837</v>
+        <v>0.3966865246497804</v>
       </c>
       <c r="K7">
-        <v>0.344456134687686</v>
+        <v>0.2899974501930807</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1757408459611369</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05984470313888757</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.994269692972139</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.994421631482481</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.761668277556737</v>
+        <v>1.757942665140718</v>
       </c>
       <c r="C8">
-        <v>0.6345278826875642</v>
+        <v>0.689400393011141</v>
       </c>
       <c r="D8">
-        <v>0.02596775296770915</v>
+        <v>0.03211806838483611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7467099258969228</v>
+        <v>0.6472895977706798</v>
       </c>
       <c r="G8">
-        <v>0.6653836755023406</v>
+        <v>0.5537702416202563</v>
       </c>
       <c r="H8">
-        <v>0.0002289865677007619</v>
+        <v>0.0002181225175879042</v>
       </c>
       <c r="I8">
-        <v>0.005063245825734697</v>
+        <v>0.004832356894634238</v>
       </c>
       <c r="J8">
-        <v>0.4319712559674684</v>
+        <v>0.4069042660960065</v>
       </c>
       <c r="K8">
-        <v>0.3630321164745851</v>
+        <v>0.2935545548564598</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1699450104285809</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06706590599613449</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.416319389477536</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.415354368325865</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.344032524647673</v>
+        <v>2.330450107976674</v>
       </c>
       <c r="C9">
-        <v>0.8276150603124108</v>
+        <v>0.9170855799713706</v>
       </c>
       <c r="D9">
-        <v>0.03046474060792903</v>
+        <v>0.04016194065830803</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9440335748767978</v>
+        <v>0.7969343382895318</v>
       </c>
       <c r="G9">
-        <v>0.848748942657636</v>
+        <v>0.6921207945396617</v>
       </c>
       <c r="H9">
-        <v>0.00290845557056163</v>
+        <v>0.002784617704928882</v>
       </c>
       <c r="I9">
-        <v>0.01238850647616552</v>
+        <v>0.01066465712419085</v>
       </c>
       <c r="J9">
-        <v>0.5050486926034807</v>
+        <v>0.4541769745505633</v>
       </c>
       <c r="K9">
-        <v>0.4072635930808559</v>
+        <v>0.3094068312908824</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.161719361232425</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08896237394924356</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.2524068517817</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.248620342469025</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.827565281019133</v>
+        <v>2.805001370093123</v>
       </c>
       <c r="C10">
-        <v>0.9887327302772349</v>
+        <v>1.097723341238805</v>
       </c>
       <c r="D10">
-        <v>0.03496185304735633</v>
+        <v>0.04833696838494461</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.07163255321889</v>
+        <v>0.8809181535906276</v>
       </c>
       <c r="G10">
-        <v>0.9631873329744423</v>
+        <v>0.79601349955324</v>
       </c>
       <c r="H10">
-        <v>0.00610471679064517</v>
+        <v>0.005836089101914688</v>
       </c>
       <c r="I10">
-        <v>0.01977351269603034</v>
+        <v>0.01643372666587162</v>
       </c>
       <c r="J10">
-        <v>0.5487082228915057</v>
+        <v>0.4437477274145039</v>
       </c>
       <c r="K10">
-        <v>0.4253269768668773</v>
+        <v>0.3054419015070806</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1496406783194963</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1018795051108796</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.67231124312066</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.666040169264093</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.566014346657482</v>
+        <v>3.538360652291033</v>
       </c>
       <c r="C11">
-        <v>1.204672287954992</v>
+        <v>1.298386462976453</v>
       </c>
       <c r="D11">
-        <v>0.04811957940441403</v>
+        <v>0.06544374570240308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9499058222436645</v>
+        <v>0.7649129068922917</v>
       </c>
       <c r="G11">
-        <v>0.8183798568396412</v>
+        <v>0.7220237778630576</v>
       </c>
       <c r="H11">
-        <v>0.02174049341301298</v>
+        <v>0.02152814909918632</v>
       </c>
       <c r="I11">
-        <v>0.02322856375323301</v>
+        <v>0.01921214872181309</v>
       </c>
       <c r="J11">
-        <v>0.4678495080051022</v>
+        <v>0.3185083304134793</v>
       </c>
       <c r="K11">
-        <v>0.3108909431090154</v>
+        <v>0.2147620274446389</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1138907517008114</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07160262482284452</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.315854083846872</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.310960536769088</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.133689627581873</v>
+        <v>4.103555214521521</v>
       </c>
       <c r="C12">
-        <v>1.359794352305471</v>
+        <v>1.435861072691694</v>
       </c>
       <c r="D12">
-        <v>0.05988807022247755</v>
+        <v>0.07888439615782517</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8343894628638537</v>
+        <v>0.6685819353993168</v>
       </c>
       <c r="G12">
-        <v>0.6907701412704341</v>
+        <v>0.6386057917966212</v>
       </c>
       <c r="H12">
-        <v>0.05882659322385564</v>
+        <v>0.05867777443511812</v>
       </c>
       <c r="I12">
-        <v>0.0245058408985539</v>
+        <v>0.02016565253031377</v>
       </c>
       <c r="J12">
-        <v>0.3992856981372199</v>
+        <v>0.2498436903334635</v>
       </c>
       <c r="K12">
-        <v>0.2291860315366137</v>
+        <v>0.1571695835787068</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09332070976733675</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04986717390423223</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.360395182774312</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.357030755967344</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.594700329815055</v>
+        <v>4.564503683417684</v>
       </c>
       <c r="C13">
-        <v>1.479291859652506</v>
+        <v>1.53865484944356</v>
       </c>
       <c r="D13">
-        <v>0.07135674366694644</v>
+        <v>0.08944101757179368</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7100682150324502</v>
+        <v>0.5785580772879229</v>
       </c>
       <c r="G13">
-        <v>0.5613296220892323</v>
+        <v>0.5320763397572392</v>
       </c>
       <c r="H13">
-        <v>0.1136577568365169</v>
+        <v>0.113572141479537</v>
       </c>
       <c r="I13">
-        <v>0.02429089663163175</v>
+        <v>0.02003574236815897</v>
       </c>
       <c r="J13">
-        <v>0.3322230363961296</v>
+        <v>0.2170574014934346</v>
       </c>
       <c r="K13">
-        <v>0.1625504069129065</v>
+        <v>0.1165489681426095</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08021577996171558</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03242202459655097</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6511159416506302</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6492234890092874</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.87028125359808</v>
+        <v>4.841159152201897</v>
       </c>
       <c r="C14">
-        <v>1.54824213044617</v>
+        <v>1.596295457341341</v>
       </c>
       <c r="D14">
-        <v>0.0794658252032221</v>
+        <v>0.09552975913829442</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6195769747246516</v>
+        <v>0.5172281300768375</v>
       </c>
       <c r="G14">
-        <v>0.470821789094316</v>
+        <v>0.449474024749378</v>
       </c>
       <c r="H14">
-        <v>0.1626511643594597</v>
+        <v>0.1626028076388337</v>
       </c>
       <c r="I14">
-        <v>0.02355592117081162</v>
+        <v>0.01955087312549608</v>
       </c>
       <c r="J14">
-        <v>0.2863107902881268</v>
+        <v>0.2061072280156822</v>
       </c>
       <c r="K14">
-        <v>0.1239872845168968</v>
+        <v>0.0952377917152436</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07384142745761402</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02232953920298719</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3001623765062362</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2991378844396664</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.907286014365241</v>
+        <v>4.87901153917278</v>
       </c>
       <c r="C15">
-        <v>1.557200647306729</v>
+        <v>1.60303319622551</v>
       </c>
       <c r="D15">
-        <v>0.08125020711522524</v>
+        <v>0.09630315213291851</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5935913434000426</v>
+        <v>0.5011435640702118</v>
       </c>
       <c r="G15">
-        <v>0.4458044448543887</v>
+        <v>0.4238432688834166</v>
       </c>
       <c r="H15">
-        <v>0.1750788354343058</v>
+        <v>0.1750411045957918</v>
       </c>
       <c r="I15">
-        <v>0.02309674374889692</v>
+        <v>0.01927295978423249</v>
       </c>
       <c r="J15">
-        <v>0.2741924000430771</v>
+        <v>0.2077062693124603</v>
       </c>
       <c r="K15">
-        <v>0.11550575414444</v>
+        <v>0.09134314736913574</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07286579873172983</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02004316029988118</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2326905160345341</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.231862847079146</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.585622715762725</v>
+        <v>4.562778440111913</v>
       </c>
       <c r="C16">
-        <v>1.459969815169643</v>
+        <v>1.511599128667058</v>
       </c>
       <c r="D16">
-        <v>0.0766581889763458</v>
+        <v>0.08784367392901515</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5629911396340006</v>
+        <v>0.4951218430069275</v>
       </c>
       <c r="G16">
-        <v>0.4220261194304413</v>
+        <v>0.3798839091638513</v>
       </c>
       <c r="H16">
-        <v>0.1620863568110735</v>
+        <v>0.1620774665836962</v>
       </c>
       <c r="I16">
-        <v>0.01964090083265368</v>
+        <v>0.01675010766326412</v>
       </c>
       <c r="J16">
-        <v>0.2682260994785821</v>
+        <v>0.2496126454861383</v>
       </c>
       <c r="K16">
-        <v>0.1202271940955555</v>
+        <v>0.1016573155694989</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07800491854180258</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02056025966919606</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2275256081250419</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2268163589575529</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.192929197383876</v>
+        <v>4.173339664433058</v>
       </c>
       <c r="C17">
-        <v>1.34905381092301</v>
+        <v>1.409026365106683</v>
       </c>
       <c r="D17">
-        <v>0.06877312860846274</v>
+        <v>0.07874404546491576</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5868197209629216</v>
+        <v>0.5213114486734867</v>
       </c>
       <c r="G17">
-        <v>0.4507062433194875</v>
+        <v>0.3913286860736775</v>
       </c>
       <c r="H17">
-        <v>0.1241894694573631</v>
+        <v>0.1241850456105311</v>
       </c>
       <c r="I17">
-        <v>0.01751583679312319</v>
+        <v>0.01515780924327093</v>
       </c>
       <c r="J17">
-        <v>0.2875794958362832</v>
+        <v>0.2861162246607734</v>
       </c>
       <c r="K17">
-        <v>0.1431492647742409</v>
+        <v>0.1210284871856437</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08600772326683881</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02584572509344518</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.383059415042041</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3821249221354677</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.71270347811793</v>
+        <v>3.69500204000343</v>
       </c>
       <c r="C18">
-        <v>1.214996569105551</v>
+        <v>1.287809468008845</v>
       </c>
       <c r="D18">
-        <v>0.05767519583504566</v>
+        <v>0.06776788498535069</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6665405149498582</v>
+        <v>0.5868499749385734</v>
       </c>
       <c r="G18">
-        <v>0.5360292036274359</v>
+        <v>0.452017272510588</v>
       </c>
       <c r="H18">
-        <v>0.07141895927668429</v>
+        <v>0.07139701985790481</v>
       </c>
       <c r="I18">
-        <v>0.01608230179288483</v>
+        <v>0.01395153452611364</v>
       </c>
       <c r="J18">
-        <v>0.3348632917462879</v>
+        <v>0.3326776002616754</v>
       </c>
       <c r="K18">
-        <v>0.1921943053491866</v>
+        <v>0.1569884679421776</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09992424164870606</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03817665754634447</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8196569179701001</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8181384373525873</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.221325386561546</v>
+        <v>3.204246222349752</v>
       </c>
       <c r="C19">
-        <v>1.085247424590278</v>
+        <v>1.17235874858892</v>
       </c>
       <c r="D19">
-        <v>0.04662500606580977</v>
+        <v>0.05726528555492649</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7858175552522653</v>
+        <v>0.679735244537639</v>
       </c>
       <c r="G19">
-        <v>0.6635837407341825</v>
+        <v>0.5468648133277583</v>
       </c>
       <c r="H19">
-        <v>0.02684658193293643</v>
+        <v>0.02677974337181865</v>
       </c>
       <c r="I19">
-        <v>0.01586512467403445</v>
+        <v>0.01380497128452163</v>
       </c>
       <c r="J19">
-        <v>0.4021331907461985</v>
+        <v>0.387221633558525</v>
       </c>
       <c r="K19">
-        <v>0.2657543164699838</v>
+        <v>0.2083890002516284</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1191636438215617</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05724802797808692</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.647882338963029</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.645342087083009</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.702099656861265</v>
+        <v>2.682388816092953</v>
       </c>
       <c r="C20">
-        <v>0.9558399730430267</v>
+        <v>1.06295279915949</v>
       </c>
       <c r="D20">
-        <v>0.03447903009986675</v>
+        <v>0.04642585704166891</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.024061347189686</v>
+        <v>0.8547779973901299</v>
       </c>
       <c r="G20">
-        <v>0.9176526907148315</v>
+        <v>0.7455858577202292</v>
       </c>
       <c r="H20">
-        <v>0.005118812099419223</v>
+        <v>0.004898074066456815</v>
       </c>
       <c r="I20">
-        <v>0.01824237540229134</v>
+        <v>0.01559416626209753</v>
       </c>
       <c r="J20">
-        <v>0.5293509799128486</v>
+        <v>0.4624547782958359</v>
       </c>
       <c r="K20">
-        <v>0.4107151385149876</v>
+        <v>0.302519450115355</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1513354247224612</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09679989451698034</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.553131508813209</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.547658457742187</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.987589311935153</v>
+        <v>2.958838357448087</v>
       </c>
       <c r="C21">
-        <v>1.056186711994314</v>
+        <v>1.162904169114825</v>
       </c>
       <c r="D21">
-        <v>0.03617670431954423</v>
+        <v>0.05389451937693934</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.159203660670812</v>
+        <v>0.9080050289358041</v>
       </c>
       <c r="G21">
-        <v>1.046288951512636</v>
+        <v>0.9134675701227764</v>
       </c>
       <c r="H21">
-        <v>0.008978307920538581</v>
+        <v>0.008568470166811004</v>
       </c>
       <c r="I21">
-        <v>0.02470476059749416</v>
+        <v>0.02029881267313804</v>
       </c>
       <c r="J21">
-        <v>0.5837562306946467</v>
+        <v>0.3611510679207299</v>
       </c>
       <c r="K21">
-        <v>0.450519534176081</v>
+        <v>0.299641022082028</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1424071553945723</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1072633046585345</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.192142434504916</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.183560650775547</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.203001328178402</v>
+        <v>3.167874425536922</v>
       </c>
       <c r="C22">
-        <v>1.126388337921099</v>
+        <v>1.230684638331013</v>
       </c>
       <c r="D22">
-        <v>0.03756508178026507</v>
+        <v>0.05946982891044428</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.243822523870293</v>
+        <v>0.9367797786452314</v>
       </c>
       <c r="G22">
-        <v>1.126034584854835</v>
+        <v>1.028351411167606</v>
       </c>
       <c r="H22">
-        <v>0.01168450213767558</v>
+        <v>0.01113289172806819</v>
       </c>
       <c r="I22">
-        <v>0.02916546528492336</v>
+        <v>0.02337514235575533</v>
       </c>
       <c r="J22">
-        <v>0.6171082429829085</v>
+        <v>0.2961212847695975</v>
       </c>
       <c r="K22">
-        <v>0.4733430092204856</v>
+        <v>0.2944251735659833</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1356003978544891</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1130497255873095</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.509521881154711</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.498825799314247</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.088214916893037</v>
+        <v>3.056681132375502</v>
       </c>
       <c r="C23">
-        <v>1.085392910599097</v>
+        <v>1.193462322924177</v>
       </c>
       <c r="D23">
-        <v>0.03657496159988227</v>
+        <v>0.05572846581659974</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.203383821116077</v>
+        <v>0.9306843105691627</v>
       </c>
       <c r="G23">
-        <v>1.0887309950472</v>
+        <v>0.9629207925883776</v>
       </c>
       <c r="H23">
-        <v>0.01020212210152081</v>
+        <v>0.009731075505221044</v>
       </c>
       <c r="I23">
-        <v>0.02652349202223458</v>
+        <v>0.02144432686963693</v>
       </c>
       <c r="J23">
-        <v>0.6019703464457677</v>
+        <v>0.3445900350996709</v>
       </c>
       <c r="K23">
-        <v>0.4645873075682942</v>
+        <v>0.3020040587744361</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1408297064995985</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1119488388900649</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.339929931571149</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.330432869096896</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.653872352635801</v>
+        <v>2.634187374754958</v>
       </c>
       <c r="C24">
-        <v>0.9373140213742772</v>
+        <v>1.045283543730335</v>
       </c>
       <c r="D24">
-        <v>0.03323098555978632</v>
+        <v>0.04501657444136242</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.045801454145646</v>
+        <v>0.8721196709854979</v>
       </c>
       <c r="G24">
-        <v>0.9420446293107148</v>
+        <v>0.7637736607106973</v>
       </c>
       <c r="H24">
-        <v>0.00544536591265854</v>
+        <v>0.005213973031310548</v>
       </c>
       <c r="I24">
-        <v>0.01786067786384127</v>
+        <v>0.01510033073001704</v>
       </c>
       <c r="J24">
-        <v>0.5419645887741211</v>
+        <v>0.4732957970240079</v>
       </c>
       <c r="K24">
-        <v>0.4271912333217216</v>
+        <v>0.3143623570031764</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.155747237050825</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1012699412040163</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.702941260928938</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.697264736914647</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.186239012942735</v>
+        <v>2.175682735438556</v>
       </c>
       <c r="C25">
-        <v>0.7800798014635006</v>
+        <v>0.861336506854002</v>
       </c>
       <c r="D25">
-        <v>0.02961112722121229</v>
+        <v>0.03817711892563125</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.882364095531571</v>
+        <v>0.7526801423421148</v>
       </c>
       <c r="G25">
-        <v>0.7901308416326032</v>
+        <v>0.6431558242779829</v>
       </c>
       <c r="H25">
-        <v>0.001902974846129002</v>
+        <v>0.001822446621010165</v>
       </c>
       <c r="I25">
-        <v>0.01039507250937532</v>
+        <v>0.009263462904800512</v>
       </c>
       <c r="J25">
-        <v>0.4806295186713783</v>
+        <v>0.4470092713036564</v>
       </c>
       <c r="K25">
-        <v>0.3896384962385682</v>
+        <v>0.3022793177325447</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1629227857368463</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08146731506809957</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.024914356002185</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.022023137306491</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
